--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
   <si>
     <t>I</t>
   </si>
@@ -350,22 +350,6 @@
 150 m2
 شیرودی
 1403/03/02</t>
-  </si>
-  <si>
-    <t>N.2
-450 m2</t>
-  </si>
-  <si>
-    <t>N.3
-450 m2</t>
-  </si>
-  <si>
-    <t>N.4
-450 m2</t>
-  </si>
-  <si>
-    <t>N.5
-450 m2</t>
   </si>
   <si>
     <t>N
@@ -500,6 +484,219 @@
     </r>
   </si>
   <si>
+    <t>Z3.N7</t>
+  </si>
+  <si>
+    <t>شماره کرت</t>
+  </si>
+  <si>
+    <t>رقم</t>
+  </si>
+  <si>
+    <t>مقدار بذر</t>
+  </si>
+  <si>
+    <t>تاریخ نشا</t>
+  </si>
+  <si>
+    <t>ابعاد کرت</t>
+  </si>
+  <si>
+    <t>شیرودی</t>
+  </si>
+  <si>
+    <t>هاشمی مازند</t>
+  </si>
+  <si>
+    <t>1403/01/24</t>
+  </si>
+  <si>
+    <t>1403/01/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 kg</t>
+  </si>
+  <si>
+    <t>هاشمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 kg</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>هال شماره یک</t>
+  </si>
+  <si>
+    <t>هال شماره دو</t>
+  </si>
+  <si>
+    <t>Z3.N6</t>
+  </si>
+  <si>
+    <t>2*20</t>
+  </si>
+  <si>
+    <t>نقطه شروع</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N.1
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.2
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.3
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.4
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.5
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.6
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>N.7
+750 m2
+هاشمی
+1403/02/29</t>
+  </si>
+  <si>
+    <t>6000 m2</t>
+  </si>
+  <si>
+    <t>تکرار چهارم</t>
+  </si>
+  <si>
+    <t>آزمایش سازگاری آمل 1403</t>
+  </si>
+  <si>
+    <t>تکرار اول</t>
+  </si>
+  <si>
+    <t>تکرار دوم</t>
+  </si>
+  <si>
+    <t>تکرار سوم</t>
+  </si>
+  <si>
+    <t>آزمایش نمایشی آمل 1403</t>
+  </si>
+  <si>
+    <t>خزانه 1403</t>
+  </si>
+  <si>
+    <t>N.3
+450 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.2
+450 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.9
+260 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.8
+400 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.7
+360 m2</t>
+  </si>
+  <si>
+    <t>N.6
+360 m2</t>
+  </si>
+  <si>
+    <t>N.5
+360 m2</t>
+  </si>
+  <si>
+    <t>N.2
+360 m2</t>
+  </si>
+  <si>
+    <t>N.1
+360 m2</t>
+  </si>
+  <si>
+    <t>600 m2</t>
+  </si>
+  <si>
+    <t>300 m2</t>
+  </si>
+  <si>
+    <t>480 m2</t>
+  </si>
+  <si>
+    <t>500 m2</t>
+  </si>
+  <si>
+    <t>N.4
+450 m2
+رشت</t>
+  </si>
+  <si>
+    <t>N.5
+450 m2
+رشت</t>
+  </si>
+  <si>
+    <t>N.10
+200 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.11
+280 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
+    <t>N.12
+360 m2
+هاشمی
+1403/03/06</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">N.6
 450 m2
@@ -508,7 +705,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFC00000"/>
         <rFont val="Titr"/>
         <charset val="178"/>
@@ -518,144 +715,26 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1403/01/26</t>
+1403/01/26
+</t>
     </r>
-  </si>
-  <si>
-    <t>Z3.N7</t>
-  </si>
-  <si>
-    <t>شماره کرت</t>
-  </si>
-  <si>
-    <t>رقم</t>
-  </si>
-  <si>
-    <t>مقدار بذر</t>
-  </si>
-  <si>
-    <t>تاریخ نشا</t>
-  </si>
-  <si>
-    <t>ابعاد کرت</t>
-  </si>
-  <si>
-    <t>شیرودی</t>
-  </si>
-  <si>
-    <t>هاشمی مازند</t>
-  </si>
-  <si>
-    <t>1403/01/24</t>
-  </si>
-  <si>
-    <t>1403/01/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 kg</t>
-  </si>
-  <si>
-    <t>هاشمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 kg</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;</t>
-  </si>
-  <si>
-    <t>هال شماره یک</t>
-  </si>
-  <si>
-    <t>هال شماره دو</t>
-  </si>
-  <si>
-    <t>Z3.N6</t>
-  </si>
-  <si>
-    <t>2*20</t>
-  </si>
-  <si>
-    <t>نقطه شروع</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>N.1
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.2
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.3
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.4
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.5
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.6
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>N.7
-750 m2
-هاشمی
-1403/02/29</t>
-  </si>
-  <si>
-    <t>6000 m2</t>
-  </si>
-  <si>
-    <t>تکرار چهارم</t>
-  </si>
-  <si>
-    <t>آزمایش سازگاری آمل 1403</t>
-  </si>
-  <si>
-    <t>تکرار اول</t>
-  </si>
-  <si>
-    <t>تکرار دوم</t>
-  </si>
-  <si>
-    <t>تکرار سوم</t>
-  </si>
-  <si>
-    <t>آزمایش نمایشی آمل 1403</t>
-  </si>
-  <si>
-    <t>خزانه 1403</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>رشت</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -663,9 +742,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-30C0000]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-30C0000]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +823,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Titr"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -813,22 +914,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1090,7 +1180,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1103,80 +1210,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1185,21 +1225,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,39 +1242,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,15 +1279,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1265,10 +1293,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,182 +1305,212 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -1818,530 +1876,539 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D6:O30"/>
+  <dimension ref="D6:O31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="27.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:15" ht="57" x14ac:dyDescent="0.2">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="11"/>
+      <c r="O7" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="15"/>
+      <c r="O9" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D10" s="12"/>
+      <c r="E10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="O10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12"/>
+      <c r="E11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="15"/>
+      <c r="O11" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+      <c r="E12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="15"/>
+      <c r="O12" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="12"/>
+      <c r="E13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="O13" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D14" s="12"/>
+      <c r="E14" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="87"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D15" s="12"/>
+      <c r="E15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D16" s="12"/>
+      <c r="E16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="4:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D17" s="12"/>
+      <c r="E17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="D18" s="12"/>
+      <c r="E18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="4:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="12"/>
+      <c r="E19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="12"/>
+      <c r="E20" s="47">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="47">
+        <v>6600</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="47">
+        <v>4000</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="4:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="12"/>
+      <c r="E22" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="35">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="47">
+        <v>6600</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="12"/>
+      <c r="E23" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="86"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="12"/>
+      <c r="E24" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="88"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="12"/>
+      <c r="E25" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="88"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="17">
-        <v>6600</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="15"/>
-      <c r="O7" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="O9" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D10" s="16"/>
-      <c r="E10" s="9">
-        <v>300</v>
-      </c>
-      <c r="F10" s="9">
-        <v>500</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="19"/>
-      <c r="O10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D11" s="16"/>
-      <c r="E11" s="9">
-        <v>300</v>
-      </c>
-      <c r="F11" s="56">
-        <v>500</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="19"/>
-      <c r="O11" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="16"/>
-      <c r="E12" s="9">
-        <v>300</v>
-      </c>
-      <c r="F12" s="56">
-        <v>500</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="31">
-        <v>600</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="9">
-        <v>400</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="19"/>
-      <c r="O12" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D13" s="16"/>
-      <c r="E13" s="9">
-        <v>300</v>
-      </c>
-      <c r="F13" s="56">
-        <v>500</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="9">
-        <v>360</v>
-      </c>
-      <c r="L13" s="31">
-        <v>260</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="O13" s="30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D14" s="16"/>
-      <c r="E14" s="56">
-        <v>480</v>
-      </c>
-      <c r="F14" s="9">
-        <v>480</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>450</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="9">
-        <v>360</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D15" s="16"/>
-      <c r="E15" s="9">
-        <v>480</v>
-      </c>
-      <c r="F15" s="9">
-        <v>480</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="9">
-        <v>450</v>
-      </c>
-      <c r="I15" s="9">
-        <v>450</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="9">
-        <v>360</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="16"/>
-      <c r="E16" s="9">
-        <v>480</v>
-      </c>
-      <c r="F16" s="9">
-        <v>480</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="9">
-        <v>450</v>
-      </c>
-      <c r="I16" s="9">
-        <v>450</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="9">
-        <v>360</v>
-      </c>
-      <c r="L16" s="31">
-        <v>200</v>
-      </c>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="16"/>
-      <c r="E17" s="9">
-        <v>480</v>
-      </c>
-      <c r="F17" s="9">
-        <v>480</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9">
-        <v>450</v>
-      </c>
-      <c r="I17" s="9">
-        <v>450</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="9">
-        <v>360</v>
-      </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D18" s="16"/>
-      <c r="E18" s="9">
-        <v>480</v>
-      </c>
-      <c r="F18" s="9">
-        <v>480</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="9">
-        <v>450</v>
-      </c>
-      <c r="I18" s="9">
-        <v>450</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="9">
-        <v>360</v>
-      </c>
-      <c r="L18" s="9">
-        <v>280</v>
-      </c>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="16"/>
-      <c r="E19" s="9">
-        <v>300</v>
-      </c>
-      <c r="F19" s="9">
-        <v>300</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="9">
-        <v>450</v>
-      </c>
-      <c r="I19" s="9">
-        <v>450</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="9">
-        <v>360</v>
-      </c>
-      <c r="L19" s="9">
-        <v>360</v>
-      </c>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="16"/>
-      <c r="E21" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="12">
-        <v>5000</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="73">
-        <v>6600</v>
-      </c>
-      <c r="L21" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="16"/>
-      <c r="E22" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="58" t="s">
+      <c r="I25" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="12"/>
+      <c r="E26" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="88"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="12"/>
+      <c r="E27" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="L22" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="16"/>
-      <c r="E23" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="58" t="s">
+      <c r="I27" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="12"/>
+      <c r="E28" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="16"/>
-      <c r="E24" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="58" t="s">
+      <c r="I28" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+      <c r="E29" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="16"/>
-      <c r="E25" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="16"/>
-      <c r="E26" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="16"/>
-      <c r="E27" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="60" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L29" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
@@ -2358,243 +2425,237 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="B5" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>8</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="76"/>
+    </row>
+    <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>11</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F21" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>23</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
-        <v>6</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
-        <v>7</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
-        <v>8</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
-        <v>10</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
-        <v>11</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <v>23</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <v>13</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C21:C22"/>
@@ -2603,6 +2664,12 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2618,401 +2685,396 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="J3" s="82" t="s">
+      <c r="B3" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="J3" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="82"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="80" t="s">
+      <c r="B5" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="55">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="78"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="84"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="80" t="s">
+      <c r="B10" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="J10" s="35" t="s">
+      <c r="F10" s="78"/>
+      <c r="J10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="55">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="G11" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="J12" s="35" t="s">
+      <c r="G12" s="80"/>
+      <c r="J12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="84" t="s">
-        <v>120</v>
+      <c r="K12" s="55" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="J13" s="35" t="s">
+      <c r="G13" s="80"/>
+      <c r="J13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="84" t="s">
-        <v>122</v>
+      <c r="K13" s="55" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="76"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="84"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="80" t="s">
+      <c r="B15" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="J15" s="35" t="s">
+      <c r="F15" s="78"/>
+      <c r="J15" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="56" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>144</v>
+      <c r="J16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="88" t="s">
+      <c r="K17" s="59" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="89" t="s">
-        <v>145</v>
+      <c r="K18" s="60" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="78"/>
-      <c r="J19" s="77"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="52"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="80" t="s">
+      <c r="B20" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="49" t="s">
-        <v>144</v>
+      <c r="B24" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3020,6 +3082,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3036,186 +3103,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="2.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="2.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="K3" s="3" t="s">
+      <c r="B3" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="K3" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>965</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>952</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>8611</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>830</v>
       </c>
-      <c r="I5" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="I6" s="51"/>
-      <c r="K6" s="10" t="s">
+      <c r="A6" s="81"/>
+      <c r="I6" s="80"/>
+      <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="9">
+      <c r="A7" s="81"/>
+      <c r="B7" s="6">
         <v>987</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>956</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>964</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>114</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>8616</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>102</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="K7" s="10" t="s">
+      <c r="I7" s="80"/>
+      <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>121</v>
+      <c r="L8" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="K9" s="10" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>122</v>
+      <c r="L9" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="K11" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>144</v>
+      <c r="K11" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="K12" s="10" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="K13" s="10" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="54" t="s">
-        <v>145</v>
+      <c r="L13" s="34" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="خزانه" sheetId="5" r:id="rId3"/>
     <sheet name="آزمایش سازگاری آمل" sheetId="1" r:id="rId4"/>
     <sheet name="آزمایش نمایشی آمل" sheetId="3" r:id="rId5"/>
+    <sheet name="آزمایش دکتر خزائی ناحیه ای رشت" sheetId="7" r:id="rId6"/>
+    <sheet name="آزمایش دکتر عبادی و صادقیان رشت" sheetId="8" r:id="rId7"/>
+    <sheet name="آزمایش دکتر عبادی ناحیه ای رشت" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="189">
   <si>
     <t>I</t>
   </si>
@@ -669,16 +672,6 @@
     <t>500 m2</t>
   </si>
   <si>
-    <t>N.4
-450 m2
-رشت</t>
-  </si>
-  <si>
-    <t>N.5
-450 m2
-رشت</t>
-  </si>
-  <si>
     <t>N.10
 200 m2
 هاشمی
@@ -695,6 +688,18 @@
 360 m2
 هاشمی
 1403/03/06</t>
+  </si>
+  <si>
+    <t>N.4
+450 m2
+رشت
+1403/03/07</t>
+  </si>
+  <si>
+    <t>N.5
+450 m2
+رشت
+1403/03/07</t>
   </si>
   <si>
     <r>
@@ -705,7 +710,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="6"/>
         <color rgb="FFC00000"/>
         <rFont val="Titr"/>
         <charset val="178"/>
@@ -715,7 +720,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="6"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -727,14 +732,57 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="6"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>رشت</t>
+      <t>رشت
+1403/03/0</t>
     </r>
+  </si>
+  <si>
+    <t>تصادفی تنظیم رشت</t>
+  </si>
+  <si>
+    <t>Z3.N4</t>
+  </si>
+  <si>
+    <t>1403/03/07</t>
+  </si>
+  <si>
+    <t>تصادفی</t>
+  </si>
+  <si>
+    <t>Z3.N5</t>
+  </si>
+  <si>
+    <t>کل خط ستون</t>
+  </si>
+  <si>
+    <t>کل خط ردیف</t>
+  </si>
+  <si>
+    <t>1403/03/0</t>
+  </si>
+  <si>
+    <t>رقم 10 از آمل نیامد و نکاشتیم.</t>
+  </si>
+  <si>
+    <t>در تکرار دو رقم 3 در نقشه از بالا روی ستون پنجم بود ولی دکتر روی ستون چهارم گذاشت</t>
+  </si>
+  <si>
+    <t>رقم 3 و 5 چک شود</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر عبادی ناحیه ای رشت</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر عبادی و صادقیان ناحیه ای رشت</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر خزائی ناحیه ای رشت</t>
   </si>
 </sst>
 </file>
@@ -744,7 +792,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-30C0000]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,22 +879,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="6"/>
       <color rgb="FFC00000"/>
       <name val="Titr"/>
       <charset val="178"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="6"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,8 +975,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1295,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,95 +1506,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1511,6 +1547,115 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1878,8 +2023,8 @@
   </sheetPr>
   <dimension ref="D6:O31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1929,7 +2074,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -1947,13 +2092,13 @@
         <v>168</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="15"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="33" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1966,7 +2111,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -1986,11 +2131,11 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="70" t="s">
         <v>165</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="64" t="s">
         <v>159</v>
       </c>
       <c r="L12" s="13"/>
@@ -2009,12 +2154,12 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="61"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="14"/>
       <c r="K13" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="69" t="s">
         <v>158</v>
       </c>
       <c r="M13" s="15"/>
@@ -2039,7 +2184,7 @@
       <c r="K14" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L14" s="87"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2061,7 +2206,7 @@
       <c r="K15" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="87"/>
+      <c r="L15" s="68"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2083,8 +2228,8 @@
       <c r="K16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="88" t="s">
-        <v>171</v>
+      <c r="L16" s="67" t="s">
+        <v>169</v>
       </c>
       <c r="M16" s="15"/>
     </row>
@@ -2107,7 +2252,7 @@
       <c r="K17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="87"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
@@ -2130,7 +2275,7 @@
         <v>163</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M18" s="15"/>
     </row>
@@ -2154,7 +2299,7 @@
         <v>164</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M19" s="15"/>
     </row>
@@ -2196,7 +2341,7 @@
     </row>
     <row r="22" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="12"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="66" t="s">
         <v>148</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -2220,15 +2365,15 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="12"/>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="14"/>
       <c r="H23" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="90" t="s">
+      <c r="I23" s="65" t="s">
         <v>96</v>
       </c>
       <c r="J23" s="14"/>
@@ -2242,10 +2387,10 @@
     </row>
     <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="12"/>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="88"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="14"/>
       <c r="H24" s="37" t="s">
         <v>98</v>
@@ -2254,7 +2399,7 @@
         <v>108</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="98" t="s">
         <v>174</v>
       </c>
       <c r="L24" s="38" t="s">
@@ -2264,10 +2409,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="12"/>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="88"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="14"/>
       <c r="H25" s="37" t="s">
         <v>99</v>
@@ -2276,8 +2421,8 @@
         <v>107</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="37" t="s">
-        <v>170</v>
+      <c r="K25" s="97" t="s">
+        <v>173</v>
       </c>
       <c r="L25" s="38" t="s">
         <v>90</v>
@@ -2286,10 +2431,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="12"/>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="88"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="14"/>
       <c r="H26" s="37" t="s">
         <v>100</v>
@@ -2298,8 +2443,8 @@
         <v>106</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="37" t="s">
-        <v>169</v>
+      <c r="K26" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="L26" s="38" t="s">
         <v>91</v>
@@ -2308,10 +2453,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="12"/>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="88"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="14"/>
       <c r="H27" s="37" t="s">
         <v>101</v>
@@ -2320,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="84" t="s">
+      <c r="K27" s="63" t="s">
         <v>156</v>
       </c>
       <c r="L27" s="38" t="s">
@@ -2330,10 +2475,10 @@
     </row>
     <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="12"/>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="88"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="14"/>
       <c r="H28" s="37" t="s">
         <v>102</v>
@@ -2342,7 +2487,7 @@
         <v>104</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="63" t="s">
         <v>157</v>
       </c>
       <c r="L28" s="38" t="s">
@@ -2352,10 +2497,10 @@
     </row>
     <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="95"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="14"/>
       <c r="H29" s="43" t="s">
         <v>109</v>
@@ -2398,17 +2543,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
@@ -2439,26 +2584,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="84"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -2481,16 +2626,16 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2498,84 +2643,84 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
@@ -2584,17 +2729,17 @@
       <c r="F17" s="13"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
@@ -2617,16 +2762,16 @@
       <c r="B21" s="6">
         <v>11</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2634,10 +2779,10 @@
       <c r="B22" s="6">
         <v>23</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="65"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="80"/>
     </row>
     <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
@@ -2652,10 +2797,16 @@
       <c r="E23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="66"/>
+      <c r="F23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C21:C22"/>
@@ -2664,12 +2815,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2680,7 +2825,7 @@
   <dimension ref="A3:K24"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2698,32 +2843,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="J3" s="79" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="J3" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="78"/>
+      <c r="F5" s="94"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
     </row>
@@ -2806,15 +2951,15 @@
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="94"/>
       <c r="J10" s="27" t="s">
         <v>72</v>
       </c>
@@ -2823,7 +2968,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="92" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2841,7 +2986,7 @@
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="91" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="27" t="s">
@@ -2852,7 +2997,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="81"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2868,7 +3013,7 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="80"/>
+      <c r="G12" s="91"/>
       <c r="J12" s="27" t="s">
         <v>74</v>
       </c>
@@ -2877,7 +3022,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2893,7 +3038,7 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="80"/>
+      <c r="G13" s="91"/>
       <c r="J13" s="27" t="s">
         <v>75</v>
       </c>
@@ -2913,15 +3058,15 @@
       <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="94"/>
       <c r="J15" s="27" t="s">
         <v>76</v>
       </c>
@@ -3007,15 +3152,15 @@
       <c r="J19" s="51"/>
     </row>
     <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -3075,6 +3220,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3082,11 +3232,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3098,7 +3243,7 @@
   <dimension ref="A3:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3117,22 +3262,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="K3" s="83" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="K3" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="83"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="92" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3156,7 +3301,7 @@
       <c r="H5" s="6">
         <v>830</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="91" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -3167,8 +3312,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="92"/>
+      <c r="I6" s="91"/>
       <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
@@ -3177,7 +3322,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="6">
         <v>987</v>
       </c>
@@ -3199,7 +3344,7 @@
       <c r="H7" s="6">
         <v>102</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="91"/>
       <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
@@ -3208,6 +3353,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>74</v>
       </c>
@@ -3294,4 +3442,1102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L24"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="2.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="K3" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D6" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="D7" s="101"/>
+      <c r="E7" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="K7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D8" s="61">
+        <v>1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>4</v>
+      </c>
+      <c r="F8" s="61">
+        <v>16</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D9" s="61">
+        <v>2</v>
+      </c>
+      <c r="E9" s="61">
+        <v>11</v>
+      </c>
+      <c r="F9" s="61">
+        <v>15</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D10" s="61">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>14</v>
+      </c>
+      <c r="F10" s="61">
+        <v>14</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" s="61">
+        <v>4</v>
+      </c>
+      <c r="E11" s="61">
+        <v>8</v>
+      </c>
+      <c r="F11" s="61">
+        <v>13</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D12" s="61">
+        <v>5</v>
+      </c>
+      <c r="E12" s="61">
+        <v>3</v>
+      </c>
+      <c r="F12" s="61">
+        <v>12</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="61">
+        <v>6</v>
+      </c>
+      <c r="E13" s="61">
+        <v>16</v>
+      </c>
+      <c r="F13" s="61">
+        <v>11</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="105"/>
+      <c r="D14" s="61">
+        <v>7</v>
+      </c>
+      <c r="E14" s="61">
+        <v>12</v>
+      </c>
+      <c r="F14" s="61">
+        <v>10</v>
+      </c>
+      <c r="G14" s="103"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="105"/>
+      <c r="D15" s="61">
+        <v>8</v>
+      </c>
+      <c r="E15" s="61">
+        <v>7</v>
+      </c>
+      <c r="F15" s="61">
+        <v>9</v>
+      </c>
+      <c r="G15" s="103"/>
+      <c r="K15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" s="61">
+        <v>9</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61">
+        <v>8</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" s="61">
+        <v>10</v>
+      </c>
+      <c r="E17" s="61">
+        <v>6</v>
+      </c>
+      <c r="F17" s="61">
+        <v>7</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18" s="61">
+        <v>11</v>
+      </c>
+      <c r="E18" s="61">
+        <v>9</v>
+      </c>
+      <c r="F18" s="61">
+        <v>6</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" s="61">
+        <v>12</v>
+      </c>
+      <c r="E19" s="61">
+        <v>13</v>
+      </c>
+      <c r="F19" s="61">
+        <v>5</v>
+      </c>
+      <c r="K19" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="109">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" s="61">
+        <v>13</v>
+      </c>
+      <c r="E20" s="61">
+        <v>2</v>
+      </c>
+      <c r="F20" s="61">
+        <v>4</v>
+      </c>
+      <c r="K20" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="109">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="61">
+        <v>14</v>
+      </c>
+      <c r="E21" s="61">
+        <v>15</v>
+      </c>
+      <c r="F21" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="61">
+        <v>15</v>
+      </c>
+      <c r="E22" s="61">
+        <v>10</v>
+      </c>
+      <c r="F22" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="61">
+        <v>16</v>
+      </c>
+      <c r="E23" s="61">
+        <v>5</v>
+      </c>
+      <c r="F23" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F24" s="99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:M24"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="L3" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="90"/>
+    </row>
+    <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="L6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="61">
+        <v>1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>5</v>
+      </c>
+      <c r="F8" s="61">
+        <v>10</v>
+      </c>
+      <c r="G8" s="61">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="L8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C9" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="61">
+        <v>2</v>
+      </c>
+      <c r="E9" s="61">
+        <v>10</v>
+      </c>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="61">
+        <v>11</v>
+      </c>
+      <c r="H9" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C10" s="105"/>
+      <c r="D10" s="61">
+        <v>3</v>
+      </c>
+      <c r="E10" s="61">
+        <v>2</v>
+      </c>
+      <c r="F10" s="61">
+        <v>3</v>
+      </c>
+      <c r="G10" s="61">
+        <v>10</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="L10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C11" s="105"/>
+      <c r="D11" s="61">
+        <v>4</v>
+      </c>
+      <c r="E11" s="61">
+        <v>11</v>
+      </c>
+      <c r="F11" s="61">
+        <v>7</v>
+      </c>
+      <c r="G11" s="61">
+        <v>9</v>
+      </c>
+      <c r="H11" s="103"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="55"/>
+    </row>
+    <row r="12" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="61">
+        <v>5</v>
+      </c>
+      <c r="E12" s="61">
+        <v>3</v>
+      </c>
+      <c r="F12" s="61">
+        <v>5</v>
+      </c>
+      <c r="G12" s="61">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="L12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="61">
+        <v>6</v>
+      </c>
+      <c r="E13" s="61">
+        <v>7</v>
+      </c>
+      <c r="F13" s="61">
+        <v>2</v>
+      </c>
+      <c r="G13" s="61">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="L13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="61">
+        <v>7</v>
+      </c>
+      <c r="E14" s="61">
+        <v>9</v>
+      </c>
+      <c r="F14" s="61">
+        <v>9</v>
+      </c>
+      <c r="G14" s="61">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="61">
+        <v>8</v>
+      </c>
+      <c r="E15" s="61">
+        <v>4</v>
+      </c>
+      <c r="F15" s="61">
+        <v>6</v>
+      </c>
+      <c r="G15" s="61">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="L15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="61">
+        <v>9</v>
+      </c>
+      <c r="E16" s="61">
+        <v>1</v>
+      </c>
+      <c r="F16" s="61">
+        <v>12</v>
+      </c>
+      <c r="G16" s="61">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="L16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="61">
+        <v>10</v>
+      </c>
+      <c r="E17" s="61">
+        <v>12</v>
+      </c>
+      <c r="F17" s="61">
+        <v>11</v>
+      </c>
+      <c r="G17" s="61">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="L17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="61">
+        <v>11</v>
+      </c>
+      <c r="E18" s="61">
+        <v>8</v>
+      </c>
+      <c r="F18" s="61">
+        <v>4</v>
+      </c>
+      <c r="G18" s="61">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="L18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="61">
+        <v>12</v>
+      </c>
+      <c r="E19" s="61">
+        <v>6</v>
+      </c>
+      <c r="F19" s="61">
+        <v>8</v>
+      </c>
+      <c r="G19" s="61">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="L19" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="109">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="L20" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="109">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:M20"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="L3" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="90"/>
+    </row>
+    <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="L6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="1"/>
+      <c r="L7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="61">
+        <v>10</v>
+      </c>
+      <c r="E8" s="61">
+        <v>8</v>
+      </c>
+      <c r="F8" s="61">
+        <v>6</v>
+      </c>
+      <c r="G8" s="61">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="L8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C9" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="61">
+        <v>9</v>
+      </c>
+      <c r="E9" s="61">
+        <v>7</v>
+      </c>
+      <c r="F9" s="61">
+        <v>5</v>
+      </c>
+      <c r="G9" s="61">
+        <v>9</v>
+      </c>
+      <c r="H9" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C10" s="105"/>
+      <c r="D10" s="61">
+        <v>8</v>
+      </c>
+      <c r="E10" s="61">
+        <v>3</v>
+      </c>
+      <c r="F10" s="61">
+        <v>2</v>
+      </c>
+      <c r="G10" s="61">
+        <v>8</v>
+      </c>
+      <c r="H10" s="103"/>
+      <c r="L10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C11" s="105"/>
+      <c r="D11" s="61">
+        <v>7</v>
+      </c>
+      <c r="E11" s="61">
+        <v>1</v>
+      </c>
+      <c r="F11" s="61">
+        <v>9</v>
+      </c>
+      <c r="G11" s="61">
+        <v>7</v>
+      </c>
+      <c r="H11" s="103"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="55"/>
+    </row>
+    <row r="12" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="61">
+        <v>6</v>
+      </c>
+      <c r="E12" s="61">
+        <v>4</v>
+      </c>
+      <c r="F12" s="61">
+        <v>10</v>
+      </c>
+      <c r="G12" s="61">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="L12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="61">
+        <v>5</v>
+      </c>
+      <c r="E13" s="61">
+        <v>2</v>
+      </c>
+      <c r="F13" s="61">
+        <v>3</v>
+      </c>
+      <c r="G13" s="61">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="L13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="61">
+        <v>4</v>
+      </c>
+      <c r="E14" s="61">
+        <v>5</v>
+      </c>
+      <c r="F14" s="61">
+        <v>8</v>
+      </c>
+      <c r="G14" s="61">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="61">
+        <v>3</v>
+      </c>
+      <c r="E15" s="61">
+        <v>10</v>
+      </c>
+      <c r="F15" s="61">
+        <v>1</v>
+      </c>
+      <c r="G15" s="61">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="L15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="61">
+        <v>2</v>
+      </c>
+      <c r="E16" s="61">
+        <v>9</v>
+      </c>
+      <c r="F16" s="61">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="L16" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="61">
+        <v>1</v>
+      </c>
+      <c r="E17" s="61">
+        <v>6</v>
+      </c>
+      <c r="F17" s="61">
+        <v>7</v>
+      </c>
+      <c r="G17" s="61">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="L17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="G18" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="L18" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="109">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="1"/>
+      <c r="L20" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="109">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="D20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -1521,9 +1521,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,28 +1570,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,19 +1612,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1599,31 +1627,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,21 +1651,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2074,7 +2074,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="71"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2092,7 +2092,7 @@
         <v>168</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="71"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2111,7 +2111,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="71"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="81" t="s">
         <v>165</v>
       </c>
       <c r="J12" s="14"/>
@@ -2154,12 +2154,12 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="14"/>
       <c r="K13" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="80" t="s">
         <v>158</v>
       </c>
       <c r="M13" s="15"/>
@@ -2184,7 +2184,7 @@
       <c r="K14" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L14" s="68"/>
+      <c r="L14" s="79"/>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
       <c r="K15" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="68"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2228,7 +2228,7 @@
       <c r="K16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="76" t="s">
         <v>169</v>
       </c>
       <c r="M16" s="15"/>
@@ -2252,7 +2252,7 @@
       <c r="K17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="68"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
@@ -2365,10 +2365,10 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="12"/>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="69"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="14"/>
       <c r="H23" s="45" t="s">
         <v>97</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="12"/>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="67"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="14"/>
       <c r="H24" s="37" t="s">
         <v>98</v>
@@ -2399,7 +2399,7 @@
         <v>108</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="68" t="s">
         <v>174</v>
       </c>
       <c r="L24" s="38" t="s">
@@ -2409,10 +2409,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="12"/>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="67"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="14"/>
       <c r="H25" s="37" t="s">
         <v>99</v>
@@ -2421,7 +2421,7 @@
         <v>107</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="67" t="s">
         <v>173</v>
       </c>
       <c r="L25" s="38" t="s">
@@ -2431,10 +2431,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="12"/>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="67"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="14"/>
       <c r="H26" s="37" t="s">
         <v>100</v>
@@ -2443,7 +2443,7 @@
         <v>106</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="97" t="s">
+      <c r="K26" s="67" t="s">
         <v>172</v>
       </c>
       <c r="L26" s="38" t="s">
@@ -2453,10 +2453,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="12"/>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="14"/>
       <c r="H27" s="37" t="s">
         <v>101</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="12"/>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="14"/>
       <c r="H28" s="37" t="s">
         <v>102</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="14"/>
       <c r="H29" s="43" t="s">
         <v>109</v>
@@ -2543,17 +2543,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
@@ -2584,26 +2584,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -2626,16 +2626,16 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="85" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2643,84 +2643,84 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
@@ -2729,17 +2729,17 @@
       <c r="F17" s="13"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="97"/>
     </row>
     <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
@@ -2762,16 +2762,16 @@
       <c r="B21" s="6">
         <v>11</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="85" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2779,10 +2779,10 @@
       <c r="B22" s="6">
         <v>23</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="80"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="86"/>
     </row>
     <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
@@ -2797,16 +2797,10 @@
       <c r="E23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="77"/>
+      <c r="F23" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C21:C22"/>
@@ -2815,6 +2809,12 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2843,32 +2843,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="J3" s="90" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="J3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="90"/>
+      <c r="K3" s="100"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="99"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
     </row>
@@ -2951,15 +2951,15 @@
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="99"/>
       <c r="J10" s="27" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2986,7 +2986,7 @@
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="101" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="27" t="s">
@@ -2997,7 +2997,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="101"/>
       <c r="J12" s="27" t="s">
         <v>74</v>
       </c>
@@ -3022,7 +3022,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="101"/>
       <c r="J13" s="27" t="s">
         <v>75</v>
       </c>
@@ -3058,15 +3058,15 @@
       <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="27" t="s">
         <v>76</v>
       </c>
@@ -3152,15 +3152,15 @@
       <c r="J19" s="51"/>
     </row>
     <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94" t="s">
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -3220,11 +3220,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3232,6 +3227,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3262,22 +3262,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="K3" s="96" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="K3" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="96"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3301,7 +3301,7 @@
       <c r="H5" s="6">
         <v>830</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="101" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -3312,8 +3312,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
-      <c r="I6" s="91"/>
+      <c r="A6" s="102"/>
+      <c r="I6" s="101"/>
       <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="92"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="6">
         <v>987</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="H7" s="6">
         <v>102</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="101"/>
       <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
@@ -3449,7 +3449,7 @@
   <dimension ref="C3:L24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3465,22 +3465,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="K3" s="90" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="K3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="L3" s="100"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="71" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="32" t="s">
@@ -3493,7 +3489,7 @@
       <c r="L5" s="54"/>
     </row>
     <row r="6" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="71" t="s">
         <v>153</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -3510,8 +3506,8 @@
       </c>
     </row>
     <row r="7" spans="3:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="101"/>
-      <c r="E7" s="100" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="70" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="33"/>
@@ -3600,7 +3596,7 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="108" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="61">
@@ -3612,7 +3608,7 @@
       <c r="F13" s="61">
         <v>11</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="106" t="s">
         <v>78</v>
       </c>
       <c r="K13" s="27" t="s">
@@ -3623,7 +3619,7 @@
       </c>
     </row>
     <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="105"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="61">
         <v>7</v>
       </c>
@@ -3633,12 +3629,12 @@
       <c r="F14" s="61">
         <v>10</v>
       </c>
-      <c r="G14" s="103"/>
+      <c r="G14" s="107"/>
       <c r="K14" s="27"/>
       <c r="L14" s="55"/>
     </row>
     <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="105"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="61">
         <v>8</v>
       </c>
@@ -3648,7 +3644,7 @@
       <c r="F15" s="61">
         <v>9</v>
       </c>
-      <c r="G15" s="103"/>
+      <c r="G15" s="107"/>
       <c r="K15" s="27" t="s">
         <v>76</v>
       </c>
@@ -3717,10 +3713,10 @@
       <c r="F19" s="61">
         <v>5</v>
       </c>
-      <c r="K19" s="108" t="s">
+      <c r="K19" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="109">
+      <c r="L19" s="74">
         <v>66</v>
       </c>
     </row>
@@ -3734,10 +3730,10 @@
       <c r="F20" s="61">
         <v>4</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="109">
+      <c r="L20" s="74">
         <v>135</v>
       </c>
     </row>
@@ -3775,7 +3771,7 @@
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3807,16 +3803,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="L3" s="90" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="L3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="L4" s="62"/>
@@ -3824,10 +3820,10 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="71" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -3842,10 +3838,10 @@
     </row>
     <row r="6" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="71" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -3864,11 +3860,11 @@
     </row>
     <row r="7" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="107" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="70" t="s">
         <v>178</v>
       </c>
       <c r="G7" s="33"/>
@@ -3903,7 +3899,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="108" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="61">
@@ -3918,14 +3914,14 @@
       <c r="G9" s="61">
         <v>11</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="106" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="55"/>
     </row>
     <row r="10" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="105"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="61">
         <v>3</v>
       </c>
@@ -3938,7 +3934,7 @@
       <c r="G10" s="61">
         <v>10</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="107"/>
       <c r="L10" s="27" t="s">
         <v>72</v>
       </c>
@@ -3947,7 +3943,7 @@
       </c>
     </row>
     <row r="11" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="105"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="61">
         <v>4</v>
       </c>
@@ -3960,7 +3956,7 @@
       <c r="G11" s="61">
         <v>9</v>
       </c>
-      <c r="H11" s="103"/>
+      <c r="H11" s="107"/>
       <c r="L11" s="27"/>
       <c r="M11" s="55"/>
     </row>
@@ -4129,10 +4125,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="L19" s="108" t="s">
+      <c r="L19" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="M19" s="109">
+      <c r="M19" s="74">
         <v>66</v>
       </c>
     </row>
@@ -4141,14 +4137,14 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="69" t="s">
         <v>139</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="L20" s="108" t="s">
+      <c r="L20" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="M20" s="109">
+      <c r="M20" s="74">
         <v>135</v>
       </c>
     </row>
@@ -4156,23 +4152,23 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4204,16 +4200,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="L3" s="90" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="L3" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="L4" s="62"/>
@@ -4221,10 +4217,10 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="71" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -4239,10 +4235,10 @@
     </row>
     <row r="6" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="71" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -4261,11 +4257,11 @@
     </row>
     <row r="7" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="107" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="70" t="s">
         <v>178</v>
       </c>
       <c r="G7" s="33"/>
@@ -4300,7 +4296,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="108" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="61">
@@ -4315,14 +4311,14 @@
       <c r="G9" s="61">
         <v>9</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="106" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="55"/>
     </row>
     <row r="10" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="105"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="61">
         <v>8</v>
       </c>
@@ -4335,7 +4331,7 @@
       <c r="G10" s="61">
         <v>8</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="107"/>
       <c r="L10" s="27" t="s">
         <v>72</v>
       </c>
@@ -4344,7 +4340,7 @@
       </c>
     </row>
     <row r="11" spans="3:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="105"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="61">
         <v>7</v>
       </c>
@@ -4357,7 +4353,7 @@
       <c r="G11" s="61">
         <v>7</v>
       </c>
-      <c r="H11" s="103"/>
+      <c r="H11" s="107"/>
       <c r="L11" s="27"/>
       <c r="M11" s="55"/>
     </row>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="18" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="69" t="s">
         <v>139</v>
       </c>
       <c r="H18" s="1"/>
@@ -4505,10 +4501,10 @@
     <row r="19" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="L19" s="108" t="s">
+      <c r="L19" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="M19" s="109">
+      <c r="M19" s="74">
         <v>66</v>
       </c>
     </row>
@@ -4516,17 +4512,17 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="1"/>
-      <c r="L20" s="108" t="s">
+      <c r="L20" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="M20" s="109">
+      <c r="M20" s="74">
         <v>135</v>
       </c>
     </row>

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,54 +1543,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1600,31 +1612,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1656,6 +1656,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2074,7 +2083,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="82"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2092,7 +2101,7 @@
         <v>168</v>
       </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="82"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2111,7 +2120,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2131,7 +2140,7 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="78" t="s">
         <v>165</v>
       </c>
       <c r="J12" s="14"/>
@@ -2154,12 +2163,12 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="81"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="14"/>
       <c r="K13" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="77" t="s">
         <v>158</v>
       </c>
       <c r="M13" s="15"/>
@@ -2184,7 +2193,7 @@
       <c r="K14" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="L14" s="79"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2206,7 +2215,7 @@
       <c r="K15" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="L15" s="79"/>
+      <c r="L15" s="76"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2228,7 +2237,7 @@
       <c r="K16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="75" t="s">
         <v>169</v>
       </c>
       <c r="M16" s="15"/>
@@ -2252,7 +2261,7 @@
       <c r="K17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="79"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
@@ -2365,10 +2374,10 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="12"/>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="14"/>
       <c r="H23" s="45" t="s">
         <v>97</v>
@@ -2387,10 +2396,10 @@
     </row>
     <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="12"/>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="14"/>
       <c r="H24" s="37" t="s">
         <v>98</v>
@@ -2409,10 +2418,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="12"/>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="14"/>
       <c r="H25" s="37" t="s">
         <v>99</v>
@@ -2431,10 +2440,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="12"/>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="14"/>
       <c r="H26" s="37" t="s">
         <v>100</v>
@@ -2453,10 +2462,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="12"/>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="14"/>
       <c r="H27" s="37" t="s">
         <v>101</v>
@@ -2475,10 +2484,10 @@
     </row>
     <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="12"/>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="14"/>
       <c r="H28" s="37" t="s">
         <v>102</v>
@@ -2497,10 +2506,10 @@
     </row>
     <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="78"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="14"/>
       <c r="H29" s="43" t="s">
         <v>109</v>
@@ -2543,17 +2552,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
@@ -2584,26 +2593,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -2626,16 +2635,16 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="84" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2643,84 +2652,84 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
@@ -2729,17 +2738,17 @@
       <c r="F17" s="13"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="97"/>
+      <c r="F19" s="92"/>
     </row>
     <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
@@ -2762,16 +2771,16 @@
       <c r="B21" s="6">
         <v>11</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="84" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2779,10 +2788,10 @@
       <c r="B22" s="6">
         <v>23</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="88"/>
     </row>
     <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
@@ -2797,10 +2806,16 @@
       <c r="E23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="87"/>
+      <c r="F23" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C21:C22"/>
@@ -2809,12 +2824,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2843,32 +2852,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="J3" s="100" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="J3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="100"/>
+      <c r="K3" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="102"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
     </row>
@@ -2951,15 +2960,15 @@
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="102"/>
       <c r="J10" s="27" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +2977,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="100" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2986,7 +2995,7 @@
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="99" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="27" t="s">
@@ -2997,7 +3006,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3013,7 +3022,7 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="101"/>
+      <c r="G12" s="99"/>
       <c r="J12" s="27" t="s">
         <v>74</v>
       </c>
@@ -3022,7 +3031,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3047,7 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="101"/>
+      <c r="G13" s="99"/>
       <c r="J13" s="27" t="s">
         <v>75</v>
       </c>
@@ -3058,15 +3067,15 @@
       <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99" t="s">
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="99"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="27" t="s">
         <v>76</v>
       </c>
@@ -3152,15 +3161,15 @@
       <c r="J19" s="51"/>
     </row>
     <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -3220,6 +3229,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3227,11 +3241,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3277,7 +3286,7 @@
       <c r="L3" s="104"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="100" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3301,7 +3310,7 @@
       <c r="H5" s="6">
         <v>830</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="99" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -3312,8 +3321,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="I6" s="101"/>
+      <c r="A6" s="100"/>
+      <c r="I6" s="99"/>
       <c r="K6" s="7" t="s">
         <v>70</v>
       </c>
@@ -3322,7 +3331,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="102"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="6">
         <v>987</v>
       </c>
@@ -3344,7 +3353,7 @@
       <c r="H7" s="6">
         <v>102</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="99"/>
       <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
@@ -3448,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -3470,10 +3479,10 @@
       </c>
       <c r="E3" s="105"/>
       <c r="F3" s="105"/>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="100"/>
+      <c r="L3" s="98"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D5" s="71" t="s">
@@ -3790,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3809,27 +3818,27 @@
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
       <c r="G3" s="111"/>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="100"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="115" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -3842,10 +3851,10 @@
         <v>149</v>
       </c>
       <c r="E6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>151</v>
@@ -4180,6 +4189,7 @@
     <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4188,7 +4198,7 @@
   <dimension ref="C3:M20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4206,27 +4216,27 @@
       <c r="E3" s="111"/>
       <c r="F3" s="111"/>
       <c r="G3" s="111"/>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="100"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="3:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="115" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -4239,10 +4249,10 @@
         <v>149</v>
       </c>
       <c r="E6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>151</v>

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="158">
   <si>
     <t>I</t>
   </si>
@@ -347,16 +347,7 @@
     <t>&lt;&lt;&lt;</t>
   </si>
   <si>
-    <t>هال شماره یک</t>
-  </si>
-  <si>
-    <t>هال شماره دو</t>
-  </si>
-  <si>
     <t>Z3.N6</t>
-  </si>
-  <si>
-    <t>2*20</t>
   </si>
   <si>
     <t>نقطه شروع</t>
@@ -512,6 +503,147 @@
 450 m2
 رشت
 1403/03/07</t>
+  </si>
+  <si>
+    <t>تصادفی تنظیم رشت</t>
+  </si>
+  <si>
+    <t>Z3.N4</t>
+  </si>
+  <si>
+    <t>1403/03/07</t>
+  </si>
+  <si>
+    <t>تصادفی</t>
+  </si>
+  <si>
+    <t>Z3.N5</t>
+  </si>
+  <si>
+    <t>کل خط ستون</t>
+  </si>
+  <si>
+    <t>کل خط ردیف</t>
+  </si>
+  <si>
+    <t>رقم 10 از آمل نیامد و نکاشتیم.</t>
+  </si>
+  <si>
+    <t>در تکرار دو رقم 3 در نقشه از بالا روی ستون پنجم بود ولی دکتر روی ستون چهارم گذاشت</t>
+  </si>
+  <si>
+    <t>رقم 3 و 5 چک شود</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر عبادی ناحیه ای رشت</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر عبادی و صادقیان ناحیه ای رشت</t>
+  </si>
+  <si>
+    <t>دکتر نبی پور</t>
+  </si>
+  <si>
+    <t>آمل - ناحیه ای</t>
+  </si>
+  <si>
+    <t>دکتر نصیری</t>
+  </si>
+  <si>
+    <t>آمل - نمایشی</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر نبی پور ناحیه ای آمل 1403</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر نصیری نمایشی آمل 1403</t>
+  </si>
+  <si>
+    <t>آزمایش دکتر خزائی ناحیه ای رشت 1403</t>
+  </si>
+  <si>
+    <t>دکتر خزائی</t>
+  </si>
+  <si>
+    <t>رشت - ناحیه ای</t>
+  </si>
+  <si>
+    <t>دکتر عبادی</t>
+  </si>
+  <si>
+    <t>1403/03/08</t>
+  </si>
+  <si>
+    <t>تاریخ کشت اول</t>
+  </si>
+  <si>
+    <t>تاریخ کشت دوم</t>
+  </si>
+  <si>
+    <t>تعداد ارقام</t>
+  </si>
+  <si>
+    <t>نقشه کشت آزمایشات رشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش مرکز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ش آمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s8</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شیرودی آمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شیرودی مرکز</t>
+  </si>
+  <si>
+    <t>شیرودی آمل</t>
+  </si>
+  <si>
+    <t>نقشه کشت آزمایشات آمل</t>
   </si>
   <si>
     <r>
@@ -551,149 +683,14 @@
         <scheme val="minor"/>
       </rPr>
       <t>رشت
-1403/03/0</t>
+1403/03/08</t>
     </r>
   </si>
   <si>
-    <t>تصادفی تنظیم رشت</t>
-  </si>
-  <si>
-    <t>Z3.N4</t>
-  </si>
-  <si>
-    <t>1403/03/07</t>
-  </si>
-  <si>
-    <t>تصادفی</t>
-  </si>
-  <si>
-    <t>Z3.N5</t>
-  </si>
-  <si>
-    <t>کل خط ستون</t>
-  </si>
-  <si>
-    <t>کل خط ردیف</t>
-  </si>
-  <si>
-    <t>رقم 10 از آمل نیامد و نکاشتیم.</t>
-  </si>
-  <si>
-    <t>در تکرار دو رقم 3 در نقشه از بالا روی ستون پنجم بود ولی دکتر روی ستون چهارم گذاشت</t>
-  </si>
-  <si>
-    <t>رقم 3 و 5 چک شود</t>
-  </si>
-  <si>
-    <t>آزمایش دکتر عبادی ناحیه ای رشت</t>
-  </si>
-  <si>
-    <t>آزمایش دکتر عبادی و صادقیان ناحیه ای رشت</t>
-  </si>
-  <si>
-    <t>دکتر نبی پور</t>
-  </si>
-  <si>
-    <t>آمل - ناحیه ای</t>
-  </si>
-  <si>
-    <t>دکتر نصیری</t>
-  </si>
-  <si>
-    <t>آمل - نمایشی</t>
-  </si>
-  <si>
-    <t>آزمایش دکتر نبی پور ناحیه ای آمل 1403</t>
-  </si>
-  <si>
-    <t>آزمایش دکتر نصیری نمایشی آمل 1403</t>
-  </si>
-  <si>
-    <t>آزمایش دکتر خزائی ناحیه ای رشت 1403</t>
-  </si>
-  <si>
-    <t>دکتر خزائی</t>
-  </si>
-  <si>
-    <t>رشت - ناحیه ای</t>
-  </si>
-  <si>
-    <t>دکتر عبادی</t>
-  </si>
-  <si>
-    <t>1403/03/08</t>
-  </si>
-  <si>
-    <t>تاریخ کشت اول</t>
-  </si>
-  <si>
-    <t>تاریخ کشت دوم</t>
-  </si>
-  <si>
-    <t>تعداد ارقام</t>
-  </si>
-  <si>
-    <t>نقشه کشت آزمایشات رشت</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش مرکز</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ش آمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s8</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> شیرودی آمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> شیرودی مرکز</t>
-  </si>
-  <si>
-    <t>شیرودی آمل</t>
-  </si>
-  <si>
-    <t>نقشه کشت آزمایشات آمل</t>
+    <t>کرت شماره یک</t>
+  </si>
+  <si>
+    <t>کرت شماره دو</t>
   </si>
 </sst>
 </file>
@@ -1550,90 +1547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,45 +1559,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,12 +1577,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,21 +1599,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,15 +1639,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1797,54 +1653,195 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2212,8 +2209,8 @@
   </sheetPr>
   <dimension ref="D6:O31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2260,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="72"/>
+      <c r="H9" s="114"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2275,13 +2272,13 @@
     <row r="10" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D10" s="9"/>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="72"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2294,13 +2291,13 @@
     <row r="11" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="72"/>
+      <c r="H11" s="114"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2313,19 +2310,19 @@
     <row r="12" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="71" t="s">
-        <v>102</v>
+      <c r="I12" s="113" t="s">
+        <v>99</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
@@ -2336,20 +2333,20 @@
     <row r="13" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="71"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="11"/>
       <c r="K13" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="L13" s="112" t="s">
+        <v>92</v>
       </c>
       <c r="M13" s="12"/>
       <c r="O13" s="22" t="s">
@@ -2359,10 +2356,10 @@
     <row r="14" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D14" s="9"/>
       <c r="E14" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="4"/>
@@ -2371,18 +2368,18 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="69"/>
+        <v>95</v>
+      </c>
+      <c r="L14" s="111"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
       <c r="E15" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="4" t="s">
@@ -2393,18 +2390,18 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="69"/>
+        <v>96</v>
+      </c>
+      <c r="L15" s="111"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D16" s="9"/>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="4" t="s">
@@ -2417,18 +2414,18 @@
       <c r="K16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="66" t="s">
-        <v>106</v>
+      <c r="L16" s="110" t="s">
+        <v>103</v>
       </c>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="4:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D17" s="9"/>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="4" t="s">
@@ -2441,16 +2438,16 @@
       <c r="K17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
       <c r="D18" s="9"/>
       <c r="E18" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="4" t="s">
@@ -2461,20 +2458,20 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="4:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="9"/>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="4" t="s">
@@ -2485,10 +2482,10 @@
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M19" s="12"/>
     </row>
@@ -2531,7 +2528,7 @@
     <row r="22" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>54</v>
@@ -2554,10 +2551,10 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
-      <c r="E23" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="70"/>
+      <c r="E23" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="112"/>
       <c r="G23" s="11"/>
       <c r="H23" s="37" t="s">
         <v>36</v>
@@ -2576,10 +2573,10 @@
     </row>
     <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
-      <c r="E24" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="66"/>
+      <c r="E24" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="110"/>
       <c r="G24" s="11"/>
       <c r="H24" s="29" t="s">
         <v>37</v>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="56" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>28</v>
@@ -2598,10 +2595,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
-      <c r="E25" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="66"/>
+      <c r="E25" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="110"/>
       <c r="G25" s="11"/>
       <c r="H25" s="29" t="s">
         <v>38</v>
@@ -2611,7 +2608,7 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L25" s="30" t="s">
         <v>29</v>
@@ -2620,10 +2617,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
-      <c r="E26" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="66"/>
+      <c r="E26" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="110"/>
       <c r="G26" s="11"/>
       <c r="H26" s="29" t="s">
         <v>39</v>
@@ -2633,7 +2630,7 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L26" s="30" t="s">
         <v>30</v>
@@ -2642,10 +2639,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
-      <c r="E27" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="66"/>
+      <c r="E27" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="110"/>
       <c r="G27" s="11"/>
       <c r="H27" s="29" t="s">
         <v>40</v>
@@ -2655,7 +2652,7 @@
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L27" s="30" t="s">
         <v>31</v>
@@ -2664,10 +2661,10 @@
     </row>
     <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="9"/>
-      <c r="E28" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="66"/>
+      <c r="E28" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="110"/>
       <c r="G28" s="11"/>
       <c r="H28" s="29" t="s">
         <v>41</v>
@@ -2677,7 +2674,7 @@
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L28" s="30" t="s">
         <v>32</v>
@@ -2686,10 +2683,10 @@
     </row>
     <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
-      <c r="E29" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="68"/>
+      <c r="E29" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="118"/>
       <c r="G29" s="11"/>
       <c r="H29" s="35" t="s">
         <v>48</v>
@@ -2732,29 +2729,29 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F23"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C16"/>
+      <selection activeCell="B3" sqref="B3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2773,26 +2770,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="85"/>
+      <c r="B5" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="125"/>
       <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -2815,101 +2812,99 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>76</v>
-      </c>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -2917,95 +2912,94 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
+    <row r="18" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="125"/>
+      <c r="D18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="127"/>
+    </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="87"/>
-    </row>
-    <row r="20" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>11</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="119"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
-        <v>11</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C21" s="122"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="123"/>
+    </row>
+    <row r="22" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
-        <v>23</v>
-      </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="76"/>
-    </row>
-    <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="77"/>
+      <c r="F22" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E7:E16"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="F7:F16"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="1.9685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3032,51 +3026,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="J3" s="88" t="s">
+      <c r="B3" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="J3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="88"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="107"/>
-      <c r="J5" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>125</v>
+      <c r="B5" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="139"/>
+      <c r="J5" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="94" t="s">
-        <v>140</v>
+      <c r="B6" s="66" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="95" t="s">
         <v>139</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>135</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>9</v>
@@ -3086,20 +3080,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="67" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>148</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>10</v>
@@ -3109,20 +3103,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="67" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>153</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>11</v>
@@ -3132,28 +3126,28 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="156"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="153"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="105"/>
       <c r="J9" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K9" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
+      <c r="B10" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="109"/>
+      <c r="F10" s="143"/>
       <c r="J10" s="23" t="s">
         <v>12</v>
       </c>
@@ -3162,26 +3156,26 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="94" t="s">
-        <v>147</v>
+      <c r="B11" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>13</v>
@@ -3191,23 +3185,23 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
-      <c r="B12" s="94" t="s">
-        <v>152</v>
+      <c r="A12" s="135"/>
+      <c r="B12" s="66" t="s">
+        <v>148</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="92"/>
+      <c r="G12" s="134"/>
       <c r="J12" s="23" t="s">
         <v>14</v>
       </c>
@@ -3216,23 +3210,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94" t="s">
-        <v>150</v>
+      <c r="A13" s="135"/>
+      <c r="B13" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="92"/>
+        <v>138</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="134"/>
       <c r="J13" s="23" t="s">
         <v>15</v>
       </c>
@@ -3242,29 +3236,29 @@
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="153"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="42"/>
       <c r="J14" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103" t="s">
+      <c r="B15" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="109"/>
+      <c r="F15" s="143"/>
       <c r="J15" s="23" t="s">
         <v>19</v>
       </c>
@@ -3273,143 +3267,148 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="67" t="s">
         <v>149</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="95" t="s">
-        <v>153</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>152</v>
-      </c>
       <c r="E17" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="108"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="105"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="143"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="156"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="153"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="109"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="F23" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="112" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
+      <c r="B24" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3417,11 +3416,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3433,7 +3427,7 @@
   <dimension ref="A3:L15"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3452,66 +3446,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="K3" s="90" t="s">
+      <c r="B3" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="K3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="90"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="79">
         <v>965</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="79">
         <v>952</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="79">
         <v>8611</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="77">
         <v>830</v>
       </c>
-      <c r="I5" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>127</v>
+      <c r="I5" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="115"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="146"/>
       <c r="K6" s="23" t="s">
         <v>9</v>
       </c>
@@ -3520,29 +3514,29 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="121">
+      <c r="A7" s="147"/>
+      <c r="B7" s="80">
         <v>987</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="122">
+      <c r="D7" s="81">
         <v>956</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="81">
         <v>964</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="81">
         <v>114</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="81">
         <v>8616</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="82">
         <v>102</v>
       </c>
-      <c r="I7" s="115"/>
+      <c r="I7" s="146"/>
       <c r="K7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3552,18 +3546,18 @@
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
-      <c r="B8" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="44"/>
       <c r="K8" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L8" s="45">
         <v>14</v>
@@ -3604,10 +3598,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="K12" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
@@ -3633,7 +3627,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
@@ -3676,43 +3670,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="124" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="K3" s="88" t="s">
+      <c r="D3" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="K3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="133"/>
     </row>
     <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>132</v>
+      <c r="K5" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D6" s="129" t="s">
-        <v>91</v>
+      <c r="D6" s="85" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="130" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>9</v>
@@ -3722,11 +3716,11 @@
       </c>
     </row>
     <row r="7" spans="3:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="129"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="130"/>
+        <v>108</v>
+      </c>
+      <c r="F7" s="86"/>
       <c r="K7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3735,13 +3729,13 @@
       </c>
     </row>
     <row r="8" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D8" s="131">
+      <c r="D8" s="87">
         <v>1</v>
       </c>
       <c r="E8" s="63">
         <v>4</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="88">
         <v>16</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -3752,47 +3746,47 @@
       </c>
     </row>
     <row r="9" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D9" s="131">
+      <c r="D9" s="87">
         <v>2</v>
       </c>
       <c r="E9" s="63">
         <v>11</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="88">
         <v>15</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L9" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D10" s="131">
+      <c r="D10" s="87">
         <v>3</v>
       </c>
       <c r="E10" s="63">
         <v>14</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="88">
         <v>14</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D11" s="131">
+      <c r="D11" s="87">
         <v>4</v>
       </c>
       <c r="E11" s="63">
         <v>8</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="88">
         <v>13</v>
       </c>
       <c r="K11" s="23" t="s">
@@ -3803,57 +3797,57 @@
       </c>
     </row>
     <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D12" s="131">
+      <c r="D12" s="87">
         <v>5</v>
       </c>
       <c r="E12" s="63">
         <v>3</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="88">
         <v>12</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="131">
+      <c r="C13" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="87">
         <v>6</v>
       </c>
       <c r="E13" s="63">
         <v>16</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="88">
         <v>11</v>
       </c>
-      <c r="G13" s="128" t="s">
+      <c r="G13" s="149" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="115"/>
-      <c r="D14" s="131">
+      <c r="C14" s="146"/>
+      <c r="D14" s="87">
         <v>7</v>
       </c>
       <c r="E14" s="63">
         <v>12</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F14" s="88">
         <v>10</v>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="147"/>
       <c r="K14" s="23" t="s">
         <v>19</v>
       </c>
@@ -3862,127 +3856,127 @@
       </c>
     </row>
     <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="115"/>
-      <c r="D15" s="131">
+      <c r="C15" s="146"/>
+      <c r="D15" s="87">
         <v>8</v>
       </c>
       <c r="E15" s="63">
         <v>7</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="88">
         <v>9</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="147"/>
       <c r="K15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D16" s="131">
+      <c r="D16" s="87">
         <v>9</v>
       </c>
       <c r="E16" s="63">
         <v>1</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="88">
         <v>8</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L16" s="62">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D17" s="131">
+      <c r="D17" s="87">
         <v>10</v>
       </c>
       <c r="E17" s="63">
         <v>6</v>
       </c>
-      <c r="F17" s="132">
+      <c r="F17" s="88">
         <v>7</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L17" s="62">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="131">
+      <c r="D18" s="87">
         <v>11</v>
       </c>
       <c r="E18" s="63">
         <v>9</v>
       </c>
-      <c r="F18" s="132">
+      <c r="F18" s="88">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D19" s="131">
+      <c r="D19" s="87">
         <v>12</v>
       </c>
       <c r="E19" s="63">
         <v>13</v>
       </c>
-      <c r="F19" s="132">
+      <c r="F19" s="88">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D20" s="131">
+      <c r="D20" s="87">
         <v>13</v>
       </c>
       <c r="E20" s="63">
         <v>2</v>
       </c>
-      <c r="F20" s="132">
+      <c r="F20" s="88">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="131">
+      <c r="D21" s="87">
         <v>14</v>
       </c>
       <c r="E21" s="63">
         <v>15</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="88">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D22" s="131">
+      <c r="D22" s="87">
         <v>15</v>
       </c>
       <c r="E22" s="63">
         <v>10</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="88">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="133">
+      <c r="D23" s="89">
         <v>16</v>
       </c>
-      <c r="E23" s="134">
+      <c r="E23" s="90">
         <v>5</v>
       </c>
-      <c r="F23" s="135">
+      <c r="F23" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F24" s="57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4013,53 +4007,53 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="L3" s="88" t="s">
+      <c r="D3" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="L3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="88"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="96" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="L5" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="93" t="s">
-        <v>132</v>
+      <c r="L5" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="130" t="s">
-        <v>89</v>
+      <c r="G6" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="H6" s="1"/>
       <c r="L6" s="23" t="s">
@@ -4071,14 +4065,14 @@
     </row>
     <row r="7" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="129"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="130"/>
+        <v>111</v>
+      </c>
+      <c r="G7" s="86"/>
       <c r="H7" s="1"/>
       <c r="L7" s="23" t="s">
         <v>10</v>
@@ -4089,13 +4083,13 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="125" t="s">
-        <v>120</v>
+      <c r="S7" s="83" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="131">
+      <c r="D8" s="87">
         <v>1</v>
       </c>
       <c r="E8" s="63">
@@ -4104,7 +4098,7 @@
       <c r="F8" s="63">
         <v>10</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="88">
         <v>12</v>
       </c>
       <c r="H8" s="1"/>
@@ -4117,15 +4111,15 @@
       <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="125" t="s">
-        <v>121</v>
+      <c r="S8" s="83" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="131">
+      <c r="C9" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="87">
         <v>2</v>
       </c>
       <c r="E9" s="63">
@@ -4134,22 +4128,22 @@
       <c r="F9" s="63">
         <v>1</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="88">
         <v>11</v>
       </c>
-      <c r="H9" s="128" t="s">
+      <c r="H9" s="149" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="115"/>
-      <c r="D10" s="131">
+      <c r="C10" s="146"/>
+      <c r="D10" s="87">
         <v>3</v>
       </c>
       <c r="E10" s="63">
@@ -4158,20 +4152,20 @@
       <c r="F10" s="63">
         <v>3</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="88">
         <v>10</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="147"/>
       <c r="L10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="115"/>
-      <c r="D11" s="131">
+      <c r="C11" s="146"/>
+      <c r="D11" s="87">
         <v>4</v>
       </c>
       <c r="E11" s="63">
@@ -4180,10 +4174,10 @@
       <c r="F11" s="63">
         <v>7</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="88">
         <v>9</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="147"/>
       <c r="L11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4193,7 +4187,7 @@
     </row>
     <row r="12" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="D12" s="131">
+      <c r="D12" s="87">
         <v>5</v>
       </c>
       <c r="E12" s="63">
@@ -4202,20 +4196,20 @@
       <c r="F12" s="63">
         <v>5</v>
       </c>
-      <c r="G12" s="132">
+      <c r="G12" s="88">
         <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="L12" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="D13" s="131">
+      <c r="D13" s="87">
         <v>6</v>
       </c>
       <c r="E13" s="63">
@@ -4224,20 +4218,20 @@
       <c r="F13" s="63">
         <v>2</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="88">
         <v>7</v>
       </c>
       <c r="H13" s="1"/>
       <c r="L13" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
-      <c r="D14" s="131">
+      <c r="D14" s="87">
         <v>7</v>
       </c>
       <c r="E14" s="63">
@@ -4246,20 +4240,20 @@
       <c r="F14" s="63">
         <v>9</v>
       </c>
-      <c r="G14" s="132">
+      <c r="G14" s="88">
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
       <c r="L14" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M14" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="D15" s="131">
+      <c r="D15" s="87">
         <v>8</v>
       </c>
       <c r="E15" s="63">
@@ -4268,7 +4262,7 @@
       <c r="F15" s="63">
         <v>6</v>
       </c>
-      <c r="G15" s="132">
+      <c r="G15" s="88">
         <v>5</v>
       </c>
       <c r="H15" s="1"/>
@@ -4281,7 +4275,7 @@
     </row>
     <row r="16" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="D16" s="131">
+      <c r="D16" s="87">
         <v>9</v>
       </c>
       <c r="E16" s="63">
@@ -4290,7 +4284,7 @@
       <c r="F16" s="63">
         <v>12</v>
       </c>
-      <c r="G16" s="132">
+      <c r="G16" s="88">
         <v>4</v>
       </c>
       <c r="H16" s="1"/>
@@ -4298,12 +4292,12 @@
         <v>18</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="D17" s="131">
+      <c r="D17" s="87">
         <v>10</v>
       </c>
       <c r="E17" s="63">
@@ -4312,12 +4306,12 @@
       <c r="F17" s="63">
         <v>11</v>
       </c>
-      <c r="G17" s="132">
+      <c r="G17" s="88">
         <v>3</v>
       </c>
       <c r="H17" s="1"/>
       <c r="L17" s="61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M17" s="62">
         <v>66</v>
@@ -4325,7 +4319,7 @@
     </row>
     <row r="18" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
-      <c r="D18" s="131">
+      <c r="D18" s="87">
         <v>11</v>
       </c>
       <c r="E18" s="63">
@@ -4334,12 +4328,12 @@
       <c r="F18" s="63">
         <v>4</v>
       </c>
-      <c r="G18" s="132">
+      <c r="G18" s="88">
         <v>2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="L18" s="61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M18" s="62">
         <v>135</v>
@@ -4347,16 +4341,16 @@
     </row>
     <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="133">
+      <c r="D19" s="89">
         <v>12</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="90">
         <v>6</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="90">
         <v>8</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="91">
         <v>1</v>
       </c>
       <c r="H19" s="1"/>
@@ -4367,19 +4361,19 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="23" spans="3:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4398,7 +4392,7 @@
   <dimension ref="C3:V20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="D8" sqref="D8:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4410,63 +4404,63 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="L3" s="88" t="s">
+      <c r="D3" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="L3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="88"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
+      <c r="S4" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
     </row>
     <row r="5" spans="3:22" ht="19.5" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="96" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="L5" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="93" t="s">
-        <v>132</v>
+      <c r="L5" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="130" t="s">
-        <v>89</v>
+      <c r="G6" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="H6" s="1"/>
       <c r="L6" s="23" t="s">
@@ -4478,14 +4472,14 @@
     </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="129"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="130"/>
+        <v>111</v>
+      </c>
+      <c r="G7" s="86"/>
       <c r="H7" s="1"/>
       <c r="L7" s="23" t="s">
         <v>10</v>
@@ -4496,8 +4490,8 @@
     </row>
     <row r="8" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="131">
-        <v>10</v>
+      <c r="D8" s="87">
+        <v>1</v>
       </c>
       <c r="E8" s="63">
         <v>8</v>
@@ -4505,7 +4499,7 @@
       <c r="F8" s="63">
         <v>6</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="88">
         <v>10</v>
       </c>
       <c r="H8" s="1"/>
@@ -4517,11 +4511,11 @@
       </c>
     </row>
     <row r="9" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="131">
-        <v>9</v>
+      <c r="C9" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="87">
+        <v>2</v>
       </c>
       <c r="E9" s="63">
         <v>7</v>
@@ -4529,23 +4523,23 @@
       <c r="F9" s="63">
         <v>5</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="88">
         <v>9</v>
       </c>
-      <c r="H9" s="128" t="s">
+      <c r="H9" s="149" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="115"/>
-      <c r="D10" s="131">
-        <v>8</v>
+      <c r="C10" s="146"/>
+      <c r="D10" s="87">
+        <v>3</v>
       </c>
       <c r="E10" s="63">
         <v>3</v>
@@ -4553,21 +4547,21 @@
       <c r="F10" s="63">
         <v>2</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="88">
         <v>8</v>
       </c>
-      <c r="H10" s="114"/>
+      <c r="H10" s="147"/>
       <c r="L10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="115"/>
-      <c r="D11" s="131">
-        <v>7</v>
+      <c r="C11" s="146"/>
+      <c r="D11" s="87">
+        <v>4</v>
       </c>
       <c r="E11" s="63">
         <v>1</v>
@@ -4575,10 +4569,10 @@
       <c r="F11" s="63">
         <v>9</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="88">
         <v>7</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="147"/>
       <c r="L11" s="23" t="s">
         <v>14</v>
       </c>
@@ -4588,8 +4582,8 @@
     </row>
     <row r="12" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="D12" s="131">
-        <v>6</v>
+      <c r="D12" s="87">
+        <v>5</v>
       </c>
       <c r="E12" s="63">
         <v>4</v>
@@ -4597,7 +4591,7 @@
       <c r="F12" s="63">
         <v>10</v>
       </c>
-      <c r="G12" s="132">
+      <c r="G12" s="88">
         <v>6</v>
       </c>
       <c r="H12" s="1"/>
@@ -4605,13 +4599,13 @@
         <v>15</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="D13" s="131">
-        <v>5</v>
+      <c r="D13" s="87">
+        <v>6</v>
       </c>
       <c r="E13" s="63">
         <v>2</v>
@@ -4619,21 +4613,21 @@
       <c r="F13" s="63">
         <v>3</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="88">
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
       <c r="L13" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M13" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
-      <c r="D14" s="131">
-        <v>4</v>
+      <c r="D14" s="87">
+        <v>7</v>
       </c>
       <c r="E14" s="63">
         <v>5</v>
@@ -4641,7 +4635,7 @@
       <c r="F14" s="63">
         <v>8</v>
       </c>
-      <c r="G14" s="132">
+      <c r="G14" s="88">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
@@ -4654,8 +4648,8 @@
     </row>
     <row r="15" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="D15" s="131">
-        <v>3</v>
+      <c r="D15" s="87">
+        <v>8</v>
       </c>
       <c r="E15" s="63">
         <v>10</v>
@@ -4663,7 +4657,7 @@
       <c r="F15" s="63">
         <v>1</v>
       </c>
-      <c r="G15" s="132">
+      <c r="G15" s="88">
         <v>3</v>
       </c>
       <c r="H15" s="1"/>
@@ -4671,13 +4665,13 @@
         <v>18</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="D16" s="131">
-        <v>2</v>
+      <c r="D16" s="87">
+        <v>9</v>
       </c>
       <c r="E16" s="63">
         <v>9</v>
@@ -4685,12 +4679,12 @@
       <c r="F16" s="63">
         <v>4</v>
       </c>
-      <c r="G16" s="132">
+      <c r="G16" s="88">
         <v>2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="L16" s="61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="62">
         <v>66</v>
@@ -4698,21 +4692,21 @@
     </row>
     <row r="17" spans="3:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="133">
-        <v>1</v>
-      </c>
-      <c r="E17" s="134">
+      <c r="D17" s="87">
+        <v>10</v>
+      </c>
+      <c r="E17" s="90">
         <v>6</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="90">
         <v>7</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="91">
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="L17" s="61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M17" s="62">
         <v>135</v>
@@ -4721,7 +4715,7 @@
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="G18" s="57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4747,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4768,156 +4762,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="168" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="O1" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="155"/>
+      <c r="W1" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" s="156"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="E2" s="165" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="167"/>
+      <c r="J2" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="167"/>
+      <c r="O2" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="164"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="O1" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="168"/>
-      <c r="W1" s="165" t="s">
-        <v>158</v>
-      </c>
-      <c r="X1" s="165"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="E2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
-      <c r="J2" s="141" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="143"/>
-      <c r="O2" s="97" t="s">
+      <c r="R3" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="99"/>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="94" t="s">
+      <c r="B4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P4" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q4" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R4" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="W3" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="S4" s="95" t="s">
-        <v>156</v>
+      <c r="S4" s="67" t="s">
+        <v>152</v>
       </c>
       <c r="W4" s="23" t="s">
         <v>9</v>
@@ -4927,41 +4921,41 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="130"/>
-      <c r="E5" s="129"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="130"/>
-      <c r="J5" s="129"/>
+        <v>111</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="130"/>
-      <c r="O5" s="94" t="s">
-        <v>157</v>
+        <v>111</v>
+      </c>
+      <c r="M5" s="86"/>
+      <c r="O5" s="66" t="s">
+        <v>153</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="R5" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="S5" s="95" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="R5" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="W5" s="23" t="s">
         <v>10</v>
@@ -4971,16 +4965,16 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="131">
+      <c r="A6" s="87">
         <v>1</v>
       </c>
       <c r="B6" s="63">
         <v>4</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="88">
         <v>16</v>
       </c>
-      <c r="E6" s="131">
+      <c r="E6" s="87">
         <v>1</v>
       </c>
       <c r="F6" s="63">
@@ -4989,11 +4983,11 @@
       <c r="G6" s="63">
         <v>10</v>
       </c>
-      <c r="H6" s="132">
+      <c r="H6" s="88">
         <v>12</v>
       </c>
-      <c r="J6" s="131">
-        <v>10</v>
+      <c r="J6" s="87">
+        <v>1</v>
       </c>
       <c r="K6" s="63">
         <v>8</v>
@@ -5001,14 +4995,14 @@
       <c r="L6" s="63">
         <v>6</v>
       </c>
-      <c r="M6" s="132">
+      <c r="M6" s="88">
         <v>10</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="153"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="105"/>
       <c r="W6" s="23" t="s">
         <v>11</v>
       </c>
@@ -5017,16 +5011,16 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="131">
+      <c r="A7" s="87">
         <v>2</v>
       </c>
       <c r="B7" s="63">
         <v>11</v>
       </c>
-      <c r="C7" s="132">
+      <c r="C7" s="88">
         <v>15</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="87">
         <v>2</v>
       </c>
       <c r="F7" s="63">
@@ -5035,11 +5029,11 @@
       <c r="G7" s="63">
         <v>1</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="88">
         <v>11</v>
       </c>
-      <c r="J7" s="131">
-        <v>9</v>
+      <c r="J7" s="87">
+        <v>2</v>
       </c>
       <c r="K7" s="63">
         <v>7</v>
@@ -5047,36 +5041,36 @@
       <c r="L7" s="63">
         <v>5</v>
       </c>
-      <c r="M7" s="132">
+      <c r="M7" s="88">
         <v>9</v>
       </c>
-      <c r="O7" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160" t="s">
+      <c r="O7" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="161"/>
+      <c r="S7" s="152"/>
       <c r="W7" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X7" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="131">
+      <c r="A8" s="87">
         <v>3</v>
       </c>
       <c r="B8" s="63">
         <v>14</v>
       </c>
-      <c r="C8" s="132">
+      <c r="C8" s="88">
         <v>14</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="87">
         <v>3</v>
       </c>
       <c r="F8" s="63">
@@ -5085,11 +5079,11 @@
       <c r="G8" s="63">
         <v>3</v>
       </c>
-      <c r="H8" s="132">
+      <c r="H8" s="88">
         <v>10</v>
       </c>
-      <c r="J8" s="131">
-        <v>8</v>
+      <c r="J8" s="87">
+        <v>3</v>
       </c>
       <c r="K8" s="63">
         <v>3</v>
@@ -5097,23 +5091,23 @@
       <c r="L8" s="63">
         <v>2</v>
       </c>
-      <c r="M8" s="132">
+      <c r="M8" s="88">
         <v>8</v>
       </c>
-      <c r="O8" s="94" t="s">
-        <v>147</v>
+      <c r="O8" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="P8" s="45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="R8" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="95" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="S8" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="W8" s="23" t="s">
         <v>12</v>
@@ -5123,16 +5117,16 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="131">
+      <c r="A9" s="87">
         <v>4</v>
       </c>
       <c r="B9" s="63">
         <v>8</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="88">
         <v>13</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="87">
         <v>4</v>
       </c>
       <c r="F9" s="63">
@@ -5141,11 +5135,11 @@
       <c r="G9" s="63">
         <v>7</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="88">
         <v>9</v>
       </c>
-      <c r="J9" s="131">
-        <v>7</v>
+      <c r="J9" s="87">
+        <v>4</v>
       </c>
       <c r="K9" s="63">
         <v>1</v>
@@ -5153,23 +5147,23 @@
       <c r="L9" s="63">
         <v>9</v>
       </c>
-      <c r="M9" s="132">
+      <c r="M9" s="88">
         <v>7</v>
       </c>
-      <c r="O9" s="94" t="s">
+      <c r="O9" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" s="45" t="s">
+      <c r="S9" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="R9" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>143</v>
       </c>
       <c r="W9" s="23" t="s">
         <v>13</v>
@@ -5179,16 +5173,16 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="131">
+      <c r="A10" s="87">
         <v>5</v>
       </c>
       <c r="B10" s="63">
         <v>3</v>
       </c>
-      <c r="C10" s="132">
+      <c r="C10" s="88">
         <v>12</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="87">
         <v>5</v>
       </c>
       <c r="F10" s="63">
@@ -5197,11 +5191,11 @@
       <c r="G10" s="63">
         <v>5</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="88">
         <v>8</v>
       </c>
-      <c r="J10" s="131">
-        <v>6</v>
+      <c r="J10" s="87">
+        <v>5</v>
       </c>
       <c r="K10" s="63">
         <v>4</v>
@@ -5209,23 +5203,23 @@
       <c r="L10" s="63">
         <v>10</v>
       </c>
-      <c r="M10" s="132">
+      <c r="M10" s="88">
         <v>6</v>
       </c>
-      <c r="O10" s="94" t="s">
-        <v>150</v>
+      <c r="O10" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="P10" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="95" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>147</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>14</v>
@@ -5235,16 +5229,16 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="131">
+      <c r="A11" s="87">
         <v>6</v>
       </c>
       <c r="B11" s="63">
         <v>16</v>
       </c>
-      <c r="C11" s="132">
+      <c r="C11" s="88">
         <v>11</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="87">
         <v>6</v>
       </c>
       <c r="F11" s="63">
@@ -5253,11 +5247,11 @@
       <c r="G11" s="63">
         <v>2</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="88">
         <v>7</v>
       </c>
-      <c r="J11" s="131">
-        <v>5</v>
+      <c r="J11" s="87">
+        <v>6</v>
       </c>
       <c r="K11" s="63">
         <v>2</v>
@@ -5265,14 +5259,14 @@
       <c r="L11" s="63">
         <v>3</v>
       </c>
-      <c r="M11" s="132">
+      <c r="M11" s="88">
         <v>5</v>
       </c>
-      <c r="O11" s="156"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="153"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="105"/>
       <c r="W11" s="23" t="s">
         <v>15</v>
       </c>
@@ -5281,16 +5275,16 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="131">
+      <c r="A12" s="87">
         <v>7</v>
       </c>
       <c r="B12" s="63">
         <v>12</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="88">
         <v>10</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="87">
         <v>7</v>
       </c>
       <c r="F12" s="63">
@@ -5299,11 +5293,11 @@
       <c r="G12" s="63">
         <v>9</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="88">
         <v>6</v>
       </c>
-      <c r="J12" s="131">
-        <v>4</v>
+      <c r="J12" s="87">
+        <v>7</v>
       </c>
       <c r="K12" s="63">
         <v>5</v>
@@ -5311,30 +5305,30 @@
       <c r="L12" s="63">
         <v>8</v>
       </c>
-      <c r="M12" s="132">
+      <c r="M12" s="88">
         <v>4</v>
       </c>
-      <c r="O12" s="157" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="160" t="s">
+      <c r="O12" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="161"/>
+      <c r="S12" s="152"/>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="131">
+      <c r="A13" s="87">
         <v>8</v>
       </c>
       <c r="B13" s="63">
         <v>7</v>
       </c>
-      <c r="C13" s="132">
+      <c r="C13" s="88">
         <v>9</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="87">
         <v>8</v>
       </c>
       <c r="F13" s="63">
@@ -5343,11 +5337,11 @@
       <c r="G13" s="63">
         <v>6</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="88">
         <v>5</v>
       </c>
-      <c r="J13" s="131">
-        <v>3</v>
+      <c r="J13" s="87">
+        <v>8</v>
       </c>
       <c r="K13" s="63">
         <v>10</v>
@@ -5355,36 +5349,36 @@
       <c r="L13" s="63">
         <v>1</v>
       </c>
-      <c r="M13" s="132">
+      <c r="M13" s="88">
         <v>3</v>
       </c>
-      <c r="O13" s="94" t="s">
-        <v>155</v>
+      <c r="O13" s="66" t="s">
+        <v>151</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="R13" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13" s="95" t="s">
-        <v>153</v>
+        <v>139</v>
+      </c>
+      <c r="R13" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="67" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="131">
+      <c r="A14" s="87">
         <v>9</v>
       </c>
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="132">
+      <c r="C14" s="88">
         <v>8</v>
       </c>
-      <c r="E14" s="131">
+      <c r="E14" s="87">
         <v>9</v>
       </c>
       <c r="F14" s="63">
@@ -5393,11 +5387,11 @@
       <c r="G14" s="63">
         <v>12</v>
       </c>
-      <c r="H14" s="132">
+      <c r="H14" s="88">
         <v>4</v>
       </c>
-      <c r="J14" s="131">
-        <v>2</v>
+      <c r="J14" s="87">
+        <v>9</v>
       </c>
       <c r="K14" s="63">
         <v>9</v>
@@ -5405,36 +5399,36 @@
       <c r="L14" s="63">
         <v>4</v>
       </c>
-      <c r="M14" s="132">
+      <c r="M14" s="88">
         <v>2</v>
       </c>
-      <c r="O14" s="94" t="s">
-        <v>156</v>
+      <c r="O14" s="66" t="s">
+        <v>152</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" s="95" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="S14" s="67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="131">
+      <c r="A15" s="87">
         <v>10</v>
       </c>
       <c r="B15" s="63">
         <v>6</v>
       </c>
-      <c r="C15" s="132">
+      <c r="C15" s="88">
         <v>7</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="87">
         <v>10</v>
       </c>
       <c r="F15" s="63">
@@ -5443,48 +5437,48 @@
       <c r="G15" s="63">
         <v>11</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="88">
         <v>3</v>
       </c>
-      <c r="J15" s="133">
+      <c r="J15" s="87">
+        <v>10</v>
+      </c>
+      <c r="K15" s="90">
+        <v>6</v>
+      </c>
+      <c r="L15" s="90">
+        <v>7</v>
+      </c>
+      <c r="M15" s="91">
         <v>1</v>
       </c>
-      <c r="K15" s="134">
-        <v>6</v>
-      </c>
-      <c r="L15" s="134">
-        <v>7</v>
-      </c>
-      <c r="M15" s="135">
-        <v>1</v>
-      </c>
-      <c r="O15" s="94" t="s">
-        <v>144</v>
+      <c r="O15" s="66" t="s">
+        <v>140</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="R15" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="95" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="R15" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="131">
+      <c r="A16" s="87">
         <v>11</v>
       </c>
       <c r="B16" s="63">
         <v>9</v>
       </c>
-      <c r="C16" s="132">
+      <c r="C16" s="88">
         <v>6</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="87">
         <v>11</v>
       </c>
       <c r="F16" s="63">
@@ -5493,161 +5487,161 @@
       <c r="G16" s="63">
         <v>4</v>
       </c>
-      <c r="H16" s="132">
+      <c r="H16" s="88">
         <v>2</v>
       </c>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="146" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="156"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="153"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="108"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="105"/>
     </row>
     <row r="17" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="131">
+      <c r="A17" s="87">
         <v>12</v>
       </c>
       <c r="B17" s="63">
         <v>13</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="88">
         <v>5</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="89">
         <v>12</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="90">
         <v>6</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="90">
         <v>8</v>
       </c>
-      <c r="H17" s="135">
+      <c r="H17" s="91">
         <v>1</v>
       </c>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="147"/>
-      <c r="O17" s="157" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="160" t="s">
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="100"/>
+      <c r="O17" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="161"/>
+      <c r="S17" s="152"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="131">
+      <c r="A18" s="87">
         <v>13</v>
       </c>
       <c r="B18" s="63">
         <v>2</v>
       </c>
-      <c r="C18" s="132">
+      <c r="C18" s="88">
         <v>4</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
-      <c r="H18" s="146" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="147"/>
-      <c r="O18" s="94" t="s">
-        <v>139</v>
+      <c r="H18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="100"/>
+      <c r="O18" s="66" t="s">
+        <v>135</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="S18" s="95" t="s">
-        <v>156</v>
+        <v>137</v>
+      </c>
+      <c r="R18" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="131">
+      <c r="A19" s="87">
         <v>14</v>
       </c>
       <c r="B19" s="63">
         <v>15</v>
       </c>
-      <c r="C19" s="132">
+      <c r="C19" s="88">
         <v>3</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="147"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="147"/>
-      <c r="O19" s="94" t="s">
-        <v>145</v>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="100"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="100"/>
+      <c r="O19" s="66" t="s">
+        <v>141</v>
       </c>
       <c r="P19" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q19" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="S19" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="W19" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="X19" s="93" t="s">
-        <v>127</v>
+      <c r="S19" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" s="65" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="131">
+      <c r="A20" s="87">
         <v>15</v>
       </c>
       <c r="B20" s="63">
         <v>10</v>
       </c>
-      <c r="C20" s="132">
+      <c r="C20" s="88">
         <v>2</v>
       </c>
-      <c r="E20" s="144"/>
-      <c r="H20" s="147"/>
-      <c r="J20" s="144"/>
-      <c r="M20" s="147"/>
-      <c r="O20" s="110" t="s">
+      <c r="E20" s="97"/>
+      <c r="H20" s="100"/>
+      <c r="J20" s="97"/>
+      <c r="M20" s="100"/>
+      <c r="O20" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="R20" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="S20" s="112" t="s">
-        <v>150</v>
+      <c r="Q20" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="R20" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" s="73" t="s">
+        <v>146</v>
       </c>
       <c r="W20" s="23" t="s">
         <v>9</v>
@@ -5657,26 +5651,26 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133">
+      <c r="A21" s="89">
         <v>16</v>
       </c>
-      <c r="B21" s="134">
+      <c r="B21" s="90">
         <v>5</v>
       </c>
-      <c r="C21" s="135">
+      <c r="C21" s="91">
         <v>1</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="H21" s="147"/>
-      <c r="J21" s="144"/>
-      <c r="M21" s="147"/>
-      <c r="O21" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
+      <c r="E21" s="97"/>
+      <c r="H21" s="100"/>
+      <c r="J21" s="97"/>
+      <c r="M21" s="100"/>
+      <c r="O21" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
       <c r="W21" s="23" t="s">
         <v>10</v>
       </c>
@@ -5687,59 +5681,59 @@
     <row r="22" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="146" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="144"/>
-      <c r="F22" s="93" t="s">
+      <c r="C22" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="97"/>
+      <c r="F22" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="100"/>
+      <c r="J22" s="97"/>
+      <c r="M22" s="100"/>
+      <c r="W22" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="147"/>
-      <c r="J22" s="144"/>
-      <c r="M22" s="147"/>
-      <c r="W22" s="23" t="s">
-        <v>137</v>
       </c>
       <c r="X22" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="147"/>
-      <c r="E23" s="144"/>
+      <c r="A23" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="45">
         <v>16</v>
       </c>
-      <c r="H23" s="147"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="M23" s="147"/>
-      <c r="O23" s="166" t="s">
+      <c r="H23" s="100"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="168"/>
+      <c r="L23" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="100"/>
+      <c r="O23" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="155"/>
       <c r="W23" s="23" t="s">
         <v>13</v>
       </c>
@@ -5748,48 +5742,48 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="92" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="45">
         <v>7</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="E24" s="144"/>
+      <c r="C24" s="100"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="45">
         <v>10</v>
       </c>
-      <c r="H24" s="147"/>
-      <c r="J24" s="144"/>
+      <c r="H24" s="100"/>
+      <c r="J24" s="97"/>
       <c r="K24" s="23" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="45">
         <v>16</v>
       </c>
-      <c r="M24" s="147"/>
-      <c r="O24" s="119" t="s">
+      <c r="M24" s="100"/>
+      <c r="O24" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="120">
+      <c r="P24" s="79">
         <v>965</v>
       </c>
-      <c r="Q24" s="120">
+      <c r="Q24" s="79">
         <v>952</v>
       </c>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="120">
+      <c r="T24" s="79">
         <v>8611</v>
       </c>
-      <c r="U24" s="118">
+      <c r="U24" s="77">
         <v>830</v>
       </c>
       <c r="W24" s="23" t="s">
@@ -5800,36 +5794,36 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="45">
         <v>15</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="E25" s="144"/>
+      <c r="C25" s="100"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="45">
         <v>4</v>
       </c>
-      <c r="H25" s="147"/>
-      <c r="J25" s="144"/>
+      <c r="H25" s="100"/>
+      <c r="J25" s="97"/>
       <c r="K25" s="23" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="45">
         <v>12</v>
       </c>
-      <c r="M25" s="147"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="117"/>
+      <c r="M25" s="100"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="76"/>
       <c r="W25" s="23" t="s">
         <v>15</v>
       </c>
@@ -5838,180 +5832,184 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="45">
         <v>3</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="E26" s="144"/>
+      <c r="C26" s="100"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G26" s="45">
         <v>12</v>
       </c>
-      <c r="H26" s="147"/>
-      <c r="J26" s="144"/>
+      <c r="H26" s="100"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="45">
         <v>4</v>
       </c>
-      <c r="M26" s="147"/>
-      <c r="O26" s="121">
+      <c r="M26" s="100"/>
+      <c r="O26" s="80">
         <v>987</v>
       </c>
-      <c r="P26" s="113" t="s">
+      <c r="P26" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="122">
+      <c r="Q26" s="81">
         <v>956</v>
       </c>
-      <c r="R26" s="122">
+      <c r="R26" s="81">
         <v>964</v>
       </c>
-      <c r="S26" s="122">
+      <c r="S26" s="81">
         <v>114</v>
       </c>
-      <c r="T26" s="122">
+      <c r="T26" s="81">
         <v>8616</v>
       </c>
-      <c r="U26" s="123">
+      <c r="U26" s="82">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="136" t="s">
-        <v>137</v>
+      <c r="A27" s="92" t="s">
+        <v>133</v>
       </c>
       <c r="B27" s="45">
         <v>16</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="E27" s="144"/>
+      <c r="C27" s="100"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="147"/>
-      <c r="J27" s="144"/>
+        <v>112</v>
+      </c>
+      <c r="H27" s="100"/>
+      <c r="J27" s="97"/>
       <c r="K27" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L27" s="45">
         <v>10</v>
       </c>
-      <c r="M27" s="147"/>
-      <c r="O27" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
+      <c r="M27" s="100"/>
+      <c r="O27" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
     </row>
     <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="92" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="147"/>
-      <c r="E28" s="144"/>
+        <v>109</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="147"/>
-      <c r="J28" s="144"/>
+      <c r="H28" s="100"/>
+      <c r="J28" s="97"/>
       <c r="K28" s="23" t="s">
         <v>60</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" s="147"/>
+        <v>73</v>
+      </c>
+      <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="E29" s="144"/>
+      <c r="C29" s="100"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="147"/>
-      <c r="J29" s="144"/>
+        <v>110</v>
+      </c>
+      <c r="H29" s="100"/>
+      <c r="J29" s="97"/>
       <c r="K29" s="23" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="147"/>
+      <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="92" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="147"/>
-      <c r="E30" s="144"/>
+        <v>110</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="147"/>
-      <c r="J30" s="144"/>
+        <v>130</v>
+      </c>
+      <c r="H30" s="100"/>
+      <c r="J30" s="97"/>
       <c r="K30" s="23" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="147"/>
+        <v>130</v>
+      </c>
+      <c r="M30" s="100"/>
     </row>
     <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="150"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="150"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="R17:S17"/>
@@ -6023,10 +6021,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="آزمایش دکتر عبادی و صادقیان رشت" sheetId="8" r:id="rId7"/>
     <sheet name="آزمایش دکتر عبادی ناحیه ای رشت" sheetId="9" r:id="rId8"/>
     <sheet name="در یک نگاه" sheetId="10" r:id="rId9"/>
+    <sheet name="کار روزانه" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="161">
   <si>
     <t>I</t>
   </si>
@@ -691,6 +692,15 @@
   </si>
   <si>
     <t>کرت شماره دو</t>
+  </si>
+  <si>
+    <t>ردیف</t>
+  </si>
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>توضیحات</t>
   </si>
 </sst>
 </file>
@@ -1666,9 +1676,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,28 +1703,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,19 +1745,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1756,18 +1778,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,6 +1798,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1830,18 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,6 +2212,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -2209,8 +2265,8 @@
   </sheetPr>
   <dimension ref="D6:O31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2316,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="114"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2278,7 +2334,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="114"/>
+      <c r="H10" s="117"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2297,7 +2353,7 @@
         <v>102</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="114"/>
+      <c r="H11" s="117"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2317,7 +2373,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="116" t="s">
         <v>99</v>
       </c>
       <c r="J12" s="11"/>
@@ -2340,12 +2396,12 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="113"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="11"/>
       <c r="K13" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="112" t="s">
+      <c r="L13" s="115" t="s">
         <v>92</v>
       </c>
       <c r="M13" s="12"/>
@@ -2370,7 +2426,7 @@
       <c r="K14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="111"/>
+      <c r="L14" s="114"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2392,7 +2448,7 @@
       <c r="K15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="111"/>
+      <c r="L15" s="114"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -2414,7 +2470,7 @@
       <c r="K16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="111" t="s">
         <v>103</v>
       </c>
       <c r="M16" s="12"/>
@@ -2438,7 +2494,7 @@
       <c r="K17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="111"/>
+      <c r="L17" s="114"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
@@ -2551,10 +2607,10 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="112"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="11"/>
       <c r="H23" s="37" t="s">
         <v>36</v>
@@ -2573,10 +2629,10 @@
     </row>
     <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="110"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="11"/>
       <c r="H24" s="29" t="s">
         <v>37</v>
@@ -2595,10 +2651,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
-      <c r="E25" s="116" t="s">
+      <c r="E25" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="110"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="11"/>
       <c r="H25" s="29" t="s">
         <v>38</v>
@@ -2617,10 +2673,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="11"/>
       <c r="H26" s="29" t="s">
         <v>39</v>
@@ -2639,10 +2695,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
-      <c r="E27" s="116" t="s">
+      <c r="E27" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="110"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="11"/>
       <c r="H27" s="29" t="s">
         <v>40</v>
@@ -2661,10 +2717,10 @@
     </row>
     <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="9"/>
-      <c r="E28" s="116" t="s">
+      <c r="E28" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="110"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="11"/>
       <c r="H28" s="29" t="s">
         <v>41</v>
@@ -2683,10 +2739,10 @@
     </row>
     <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
-      <c r="E29" s="117" t="s">
+      <c r="E29" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="118"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="11"/>
       <c r="H29" s="35" t="s">
         <v>48</v>
@@ -2729,17 +2785,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2770,26 +2826,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="125"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="127"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -2812,99 +2868,99 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="119"/>
+      <c r="F7" s="120"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -2913,17 +2969,17 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="125"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="127"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
@@ -2946,25 +3002,25 @@
       <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="119"/>
+      <c r="F20" s="120"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>23</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="123"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
@@ -2979,16 +3035,10 @@
       <c r="E22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="120"/>
+      <c r="F22" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -2997,6 +3047,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.9685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3026,29 +3082,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="J3" s="133" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="J3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="133"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="139"/>
+      <c r="F5" s="143"/>
       <c r="J5" s="65" t="s">
         <v>120</v>
       </c>
@@ -3139,15 +3195,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="143"/>
+      <c r="F10" s="136"/>
       <c r="J10" s="23" t="s">
         <v>12</v>
       </c>
@@ -3156,7 +3212,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="139" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -3174,7 +3230,7 @@
       <c r="F11" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="138" t="s">
         <v>76</v>
       </c>
       <c r="J11" s="23" t="s">
@@ -3185,7 +3241,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="66" t="s">
         <v>148</v>
       </c>
@@ -3201,7 +3257,7 @@
       <c r="F12" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="134"/>
+      <c r="G12" s="138"/>
       <c r="J12" s="23" t="s">
         <v>14</v>
       </c>
@@ -3210,7 +3266,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="66" t="s">
         <v>146</v>
       </c>
@@ -3226,7 +3282,7 @@
       <c r="F13" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="134"/>
+      <c r="G13" s="138"/>
       <c r="J13" s="23" t="s">
         <v>15</v>
       </c>
@@ -3250,15 +3306,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142" t="s">
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="143"/>
+      <c r="F15" s="136"/>
       <c r="J15" s="23" t="s">
         <v>19</v>
       </c>
@@ -3332,15 +3388,15 @@
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142" t="s">
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="66" t="s">
@@ -3404,11 +3460,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3416,6 +3467,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3654,7 +3710,7 @@
   <dimension ref="C3:L24"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3675,10 +3731,10 @@
       </c>
       <c r="E3" s="148"/>
       <c r="F3" s="148"/>
-      <c r="K3" s="133" t="s">
+      <c r="K3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="133"/>
+      <c r="L3" s="137"/>
     </row>
     <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
@@ -4013,10 +4069,10 @@
       <c r="E3" s="148"/>
       <c r="F3" s="148"/>
       <c r="G3" s="148"/>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="133"/>
+      <c r="M3" s="137"/>
     </row>
     <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
@@ -4410,10 +4466,10 @@
       <c r="E3" s="148"/>
       <c r="F3" s="148"/>
       <c r="G3" s="148"/>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="133"/>
+      <c r="M3" s="137"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R4" s="1">
@@ -4741,7 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -4762,51 +4818,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="O1" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="155"/>
-      <c r="W1" s="156" t="s">
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="159"/>
+      <c r="W1" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="156"/>
+      <c r="X1" s="160"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="167"/>
-      <c r="E2" s="165" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="E2" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
-      <c r="J2" s="165" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
+      <c r="J2" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="167"/>
-      <c r="O2" s="157" t="s">
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153"/>
+      <c r="O2" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="163" t="s">
+      <c r="P2" s="162"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
@@ -5044,15 +5100,15 @@
       <c r="M7" s="88">
         <v>9</v>
       </c>
-      <c r="O7" s="160" t="s">
+      <c r="O7" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="151" t="s">
+      <c r="P7" s="165"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="152"/>
+      <c r="S7" s="156"/>
       <c r="W7" s="23" t="s">
         <v>133</v>
       </c>
@@ -5308,15 +5364,15 @@
       <c r="M12" s="88">
         <v>4</v>
       </c>
-      <c r="O12" s="160" t="s">
+      <c r="O12" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="151" t="s">
+      <c r="P12" s="165"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="152"/>
+      <c r="S12" s="156"/>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
@@ -5528,15 +5584,15 @@
       <c r="K17" s="98"/>
       <c r="L17" s="98"/>
       <c r="M17" s="100"/>
-      <c r="O17" s="160" t="s">
+      <c r="O17" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="151" t="s">
+      <c r="P17" s="165"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="152"/>
+      <c r="S17" s="156"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
@@ -5725,15 +5781,15 @@
         <v>128</v>
       </c>
       <c r="M23" s="100"/>
-      <c r="O23" s="153" t="s">
+      <c r="O23" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="155"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="159"/>
       <c r="W23" s="23" t="s">
         <v>13</v>
       </c>
@@ -6006,11 +6062,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="O23:U23"/>
@@ -6021,6 +6072,11 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="366">
   <si>
     <t>I</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>کشت پیمانکار رقم هاشمی مازند</t>
-  </si>
-  <si>
-    <t>خزانه</t>
   </si>
   <si>
     <r>
@@ -172,55 +169,6 @@
 150 m2
 شیرودی
 1403/03/02</t>
-  </si>
-  <si>
-    <t>N
-هاشمی
-1403/02/25</t>
-  </si>
-  <si>
-    <t>N.8
-450 m2</t>
-  </si>
-  <si>
-    <t>N.7
-450 m2</t>
-  </si>
-  <si>
-    <t>N.6
-400 m2</t>
-  </si>
-  <si>
-    <t>N.5
-400 m2</t>
-  </si>
-  <si>
-    <t>N.4
-360 m2</t>
-  </si>
-  <si>
-    <t>N.3
-360 m2</t>
-  </si>
-  <si>
-    <t>N.2
-300 m2</t>
-  </si>
-  <si>
-    <t>N.14
-150 m2</t>
-  </si>
-  <si>
-    <t>N.13
-450 m2</t>
-  </si>
-  <si>
-    <t>N.12
-450 m2</t>
-  </si>
-  <si>
-    <t>N.11
-450 m2</t>
   </si>
   <si>
     <t>N.10
@@ -442,38 +390,6 @@
 400 m2
 هاشمی
 1403/03/06</t>
-  </si>
-  <si>
-    <t>N.7
-360 m2</t>
-  </si>
-  <si>
-    <t>N.6
-360 m2</t>
-  </si>
-  <si>
-    <t>N.5
-360 m2</t>
-  </si>
-  <si>
-    <t>N.2
-360 m2</t>
-  </si>
-  <si>
-    <t>N.1
-360 m2</t>
-  </si>
-  <si>
-    <t>600 m2</t>
-  </si>
-  <si>
-    <t>300 m2</t>
-  </si>
-  <si>
-    <t>480 m2</t>
-  </si>
-  <si>
-    <t>500 m2</t>
   </si>
   <si>
     <t>N.10
@@ -701,6 +617,839 @@
   </si>
   <si>
     <t>توضیحات</t>
+  </si>
+  <si>
+    <t>واکاری آزمایش های رشت و آمل بهمراه وجین</t>
+  </si>
+  <si>
+    <t>1403-03-18</t>
+  </si>
+  <si>
+    <t>1403-03-11</t>
+  </si>
+  <si>
+    <t>1403-03-12</t>
+  </si>
+  <si>
+    <t>1403-03-13</t>
+  </si>
+  <si>
+    <t>1403-03-14</t>
+  </si>
+  <si>
+    <t>1403-03-15</t>
+  </si>
+  <si>
+    <t>1403-03-16</t>
+  </si>
+  <si>
+    <t>1403-03-17</t>
+  </si>
+  <si>
+    <t>1403-03-19</t>
+  </si>
+  <si>
+    <t>1403-03-20</t>
+  </si>
+  <si>
+    <t>نشاء زمین ناحیه z5</t>
+  </si>
+  <si>
+    <t>بازدید از مزرعه</t>
+  </si>
+  <si>
+    <t>علف های هرز زیاد</t>
+  </si>
+  <si>
+    <t>دیر شدن واکاری قسمت های خراب شده</t>
+  </si>
+  <si>
+    <t>تماس دکتر عباسیان جهت اطلاع از کمبود کشت نشاء آزمایش های رشت</t>
+  </si>
+  <si>
+    <t>رشد خوب نشاء های آمل و رشت</t>
+  </si>
+  <si>
+    <t>ضعف زمین و رشد کند اولین نشاء های کشت شده  ناحیه Z6</t>
+  </si>
+  <si>
+    <t>آماده سازی زمین چنگ و لت Z5</t>
+  </si>
+  <si>
+    <t>1403-03-1</t>
+  </si>
+  <si>
+    <t>1403-03-2</t>
+  </si>
+  <si>
+    <t>1403-03-3</t>
+  </si>
+  <si>
+    <t>1403-03-4</t>
+  </si>
+  <si>
+    <t>1403-03-5</t>
+  </si>
+  <si>
+    <t>1403-03-6</t>
+  </si>
+  <si>
+    <t>1403-03-7</t>
+  </si>
+  <si>
+    <t>1403-03-8</t>
+  </si>
+  <si>
+    <t>1403-03-9</t>
+  </si>
+  <si>
+    <t>1403-03-10</t>
+  </si>
+  <si>
+    <t>کشت آزمایش های رشت</t>
+  </si>
+  <si>
+    <t>کشت زمین ناحیه Z3</t>
+  </si>
+  <si>
+    <t>کشت آزمایش های آمل</t>
+  </si>
+  <si>
+    <t>تحویل گرفتن نشاء های آمل در مرکز</t>
+  </si>
+  <si>
+    <t>1403-02-31</t>
+  </si>
+  <si>
+    <t>1403-02-27</t>
+  </si>
+  <si>
+    <t>1403-02-28</t>
+  </si>
+  <si>
+    <t>1403-02-29</t>
+  </si>
+  <si>
+    <t>1403-02-30</t>
+  </si>
+  <si>
+    <t>1403-02-11</t>
+  </si>
+  <si>
+    <t>1403-02-12</t>
+  </si>
+  <si>
+    <t>1403-02-13</t>
+  </si>
+  <si>
+    <t>1403-02-14</t>
+  </si>
+  <si>
+    <t>1403-02-15</t>
+  </si>
+  <si>
+    <t>1403-02-16</t>
+  </si>
+  <si>
+    <t>1403-02-17</t>
+  </si>
+  <si>
+    <t>1403-02-18</t>
+  </si>
+  <si>
+    <t>1403-02-19</t>
+  </si>
+  <si>
+    <t>1403-02-20</t>
+  </si>
+  <si>
+    <t>1403-02-21</t>
+  </si>
+  <si>
+    <t>1403-02-22</t>
+  </si>
+  <si>
+    <t>1403-02-23</t>
+  </si>
+  <si>
+    <t>1403-02-24</t>
+  </si>
+  <si>
+    <t>1403-02-25</t>
+  </si>
+  <si>
+    <t>1403-02-26</t>
+  </si>
+  <si>
+    <t>کشت مزرعه ناحیه z1</t>
+  </si>
+  <si>
+    <t>شروع نشاء کاری مزرعه</t>
+  </si>
+  <si>
+    <t>شروع کشت از ناحیه z6</t>
+  </si>
+  <si>
+    <t>نمونه گیری از خزانه</t>
+  </si>
+  <si>
+    <t>کمبود کود در خزانه</t>
+  </si>
+  <si>
+    <t>کرت 13 خزانه بسیار متراکم و ضعیف</t>
+  </si>
+  <si>
+    <t>تماس دکتر نصیری و تعیین 3 کرت برای آزمایش های آمل</t>
+  </si>
+  <si>
+    <t>چنگ و لت ناحیه z6</t>
+  </si>
+  <si>
+    <t>چنگ و لت ناحیه z1</t>
+  </si>
+  <si>
+    <t>قارچ کش خزانه</t>
+  </si>
+  <si>
+    <t>ورود حق آب مزرعه</t>
+  </si>
+  <si>
+    <t>شروع عملیات چنگ زنی</t>
+  </si>
+  <si>
+    <t>برداشت نایلون کل خزانه</t>
+  </si>
+  <si>
+    <t>مرزگیری زمین</t>
+  </si>
+  <si>
+    <t>کنترل آب خزانه</t>
+  </si>
+  <si>
+    <t>دریافت کود توسط پیمانکار از سلیمان آباد</t>
+  </si>
+  <si>
+    <t>اوره 600 کیلو</t>
+  </si>
+  <si>
+    <t>فسفات 400 کیلو</t>
+  </si>
+  <si>
+    <t>پتاس 400 کیلو</t>
+  </si>
+  <si>
+    <t>کوددهی خزانه</t>
+  </si>
+  <si>
+    <t>قارچ کش کاربندازیم خزانه</t>
+  </si>
+  <si>
+    <t>آب تخت</t>
+  </si>
+  <si>
+    <t>1403-02-1</t>
+  </si>
+  <si>
+    <t>1403-02-2</t>
+  </si>
+  <si>
+    <t>1403-02-3</t>
+  </si>
+  <si>
+    <t>1403-02-4</t>
+  </si>
+  <si>
+    <t>1403-02-5</t>
+  </si>
+  <si>
+    <t>1403-02-6</t>
+  </si>
+  <si>
+    <t>1403-02-7</t>
+  </si>
+  <si>
+    <t>1403-02-8</t>
+  </si>
+  <si>
+    <t>1403-02-9</t>
+  </si>
+  <si>
+    <t>1403-02-10</t>
+  </si>
+  <si>
+    <t>برداشت نایلون نصف و هوادهی خزانه</t>
+  </si>
+  <si>
+    <t>برداشت نایلون کرت 13خزانه</t>
+  </si>
+  <si>
+    <t>قارچ کش</t>
+  </si>
+  <si>
+    <t>بازدید دکتر خسروی و همکاران از خزانه و مزرعه</t>
+  </si>
+  <si>
+    <t>توصیه ها</t>
+  </si>
+  <si>
+    <t>تا آخر هفته نایلون ها برداشته شود</t>
+  </si>
+  <si>
+    <t>رسیدگی به خزانه</t>
+  </si>
+  <si>
+    <t>شخم دوم مزرعه با تیلر</t>
+  </si>
+  <si>
+    <t>گلدانی نواحی z4 , z5</t>
+  </si>
+  <si>
+    <t>شخم دوم مزرعه با تیلر و گلدانی</t>
+  </si>
+  <si>
+    <t>رسیدگی به خزانه ، آبگیری و هوادهی</t>
+  </si>
+  <si>
+    <t>1403-01-31</t>
+  </si>
+  <si>
+    <t>1403-01-21</t>
+  </si>
+  <si>
+    <t>1403-01-22</t>
+  </si>
+  <si>
+    <t>1403-01-23</t>
+  </si>
+  <si>
+    <t>1403-01-24</t>
+  </si>
+  <si>
+    <t>1403-01-25</t>
+  </si>
+  <si>
+    <t>1403-01-26</t>
+  </si>
+  <si>
+    <t>1403-01-27</t>
+  </si>
+  <si>
+    <t>1403-01-28</t>
+  </si>
+  <si>
+    <t>1403-01-29</t>
+  </si>
+  <si>
+    <t>1403-01-30</t>
+  </si>
+  <si>
+    <t>راه اندازی پمپ آب</t>
+  </si>
+  <si>
+    <t>رسیدگی به امور خزانه</t>
+  </si>
+  <si>
+    <t>شخم دوم</t>
+  </si>
+  <si>
+    <t>آبگیری زمین با چشمه جهت زدن شخم دوم</t>
+  </si>
+  <si>
+    <t>شروع شخم دوم سرچین راست کاجمه با تیلر</t>
+  </si>
+  <si>
+    <t>بذرپاشی کرت 13 خزانه</t>
+  </si>
+  <si>
+    <t>پایان بذرپاشی خزانه</t>
+  </si>
+  <si>
+    <t>آماده سازی کرت 13 خزانه نصب میله گرد و نایلون</t>
+  </si>
+  <si>
+    <t>آماده سازی خزانه نصب میلگرد و نایلون</t>
+  </si>
+  <si>
+    <t>بذرپاشی خزانه</t>
+  </si>
+  <si>
+    <t>آبیاری با آب ولرم</t>
+  </si>
+  <si>
+    <t>تامین رطوبت گرمخانه</t>
+  </si>
+  <si>
+    <t>چرخداندن کیسه های بذر برای تامین اکسیژن  تا جوانه زنی</t>
+  </si>
+  <si>
+    <t>کیسه زنی بذرها و انتقال به گرمخانه</t>
+  </si>
+  <si>
+    <t>بذر شیرودی 4 کیسه 15 کیلویی</t>
+  </si>
+  <si>
+    <t>بذر هاشمی مازند 8 کیسه 15 کیلویی</t>
+  </si>
+  <si>
+    <t>بذر هاشمی یک کیسه 25 کیلویی</t>
+  </si>
+  <si>
+    <t>شستن بذرها ، پیمانکار از آب و نمک استفاده نکرد</t>
+  </si>
+  <si>
+    <t>خیساندن 24 ساعت در آب و قارچ کش</t>
+  </si>
+  <si>
+    <t>1403-01-15</t>
+  </si>
+  <si>
+    <t>1403-01-16</t>
+  </si>
+  <si>
+    <t>1403-01-17</t>
+  </si>
+  <si>
+    <t>1403-01-18</t>
+  </si>
+  <si>
+    <t>1403-01-19</t>
+  </si>
+  <si>
+    <t>1403-01-20</t>
+  </si>
+  <si>
+    <t>1403-01-1</t>
+  </si>
+  <si>
+    <t>1403-01-2</t>
+  </si>
+  <si>
+    <t>1403-01-3</t>
+  </si>
+  <si>
+    <t>1403-01-4</t>
+  </si>
+  <si>
+    <t>1403-01-5</t>
+  </si>
+  <si>
+    <t>1403-01-6</t>
+  </si>
+  <si>
+    <t>1403-01-7</t>
+  </si>
+  <si>
+    <t>1403-01-8</t>
+  </si>
+  <si>
+    <t>1403-01-9</t>
+  </si>
+  <si>
+    <t>1403-01-10</t>
+  </si>
+  <si>
+    <t>1403-01-11</t>
+  </si>
+  <si>
+    <t>1403-01-12</t>
+  </si>
+  <si>
+    <t>1403-01-13</t>
+  </si>
+  <si>
+    <t>1403-01-14</t>
+  </si>
+  <si>
+    <t>آماده سازی زمین خزانه ماله کشی ( دمرده )</t>
+  </si>
+  <si>
+    <t>آبگیری مزرعه ناحیه z2 با چشمه جهت شخم دوم</t>
+  </si>
+  <si>
+    <t>مرزگیری خزانه</t>
+  </si>
+  <si>
+    <t>ماله کشی</t>
+  </si>
+  <si>
+    <t>نخ کشی و علامت گذاری</t>
+  </si>
+  <si>
+    <t>1402-12-29</t>
+  </si>
+  <si>
+    <t>1402-12-20</t>
+  </si>
+  <si>
+    <t>1402-12-21</t>
+  </si>
+  <si>
+    <t>1402-12-22</t>
+  </si>
+  <si>
+    <t>1402-12-23</t>
+  </si>
+  <si>
+    <t>1402-12-24</t>
+  </si>
+  <si>
+    <t>1402-12-25</t>
+  </si>
+  <si>
+    <t>1402-12-26</t>
+  </si>
+  <si>
+    <t>1402-12-27</t>
+  </si>
+  <si>
+    <t>1402-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شروع شخم زمستانه </t>
+  </si>
+  <si>
+    <t>شخم اول</t>
+  </si>
+  <si>
+    <t>تحویل نشاء برای واکاری ارقام یک تا نه</t>
+  </si>
+  <si>
+    <t>واکاری کامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.6
+480 m2
+</t>
+  </si>
+  <si>
+    <t>N.7
+300 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.8
+300 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.9
+300 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.10
+300 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.11
+0 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.12
+500 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.13
+500 m2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.14
+500 m2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.15
+500 m2
+</t>
+  </si>
+  <si>
+    <t>N.16
+480 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.17
+480 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.18
+480 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.19
+480 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.20
+480 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.21
+300 m2
+هاشمی
+1403/02/25</t>
+  </si>
+  <si>
+    <t>N.1
+300 m2
+هاشمی
+1403/02/26</t>
+  </si>
+  <si>
+    <t>N.2
+480 m2
+هاشمی
+1403/02/26</t>
+  </si>
+  <si>
+    <t>N.3
+480 m2
+هاشمی
+1403/02/26</t>
+  </si>
+  <si>
+    <t>N.4
+480 m2
+هاشمی
+1403/02/26</t>
+  </si>
+  <si>
+    <t>N.5
+480 m2
+هاشمی
+1403/02/26</t>
+  </si>
+  <si>
+    <t>کشت ناحیه z4 مزرعه</t>
+  </si>
+  <si>
+    <t>N.1
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.2
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.3
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.4
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.5
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.6
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.7
+360 m2
+هاشمی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>کشت مزرعه ناحیه z2</t>
+  </si>
+  <si>
+    <t>N.2
+300 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.3
+360 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.4
+360 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.5
+400 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.6
+400 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.7
+450 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.8
+450 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.11
+450 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.12
+450 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.13
+450 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.14
+150 m2
+هاشمی
+1403/03/02</t>
+  </si>
+  <si>
+    <t>N.8</t>
+  </si>
+  <si>
+    <t>N.9</t>
+  </si>
+  <si>
+    <t>N.10</t>
+  </si>
+  <si>
+    <t>N.11</t>
+  </si>
+  <si>
+    <t>N.1
+450 m2
+شیرودی
+1403/03/19</t>
+  </si>
+  <si>
+    <t>N.2
+450 m2
+شیرودی
+1403/03/19</t>
+  </si>
+  <si>
+    <t>N.3
+450 m2
+شیرودی
+1403/03/19</t>
+  </si>
+  <si>
+    <t>N.4
+450 m2
+شیرودی
+1403/03/19</t>
+  </si>
+  <si>
+    <t>N.5
+450 m2
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.6
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.7
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.18
+450 m2
+شیرودی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.17
+450 m2
+شیرودی
+1403/03/11</t>
+  </si>
+  <si>
+    <t>N.16
+450 m2
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.15
+450 m2
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.14
+450 m2
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.13
+450 m2
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>N.12
+شیرودی
+1403/03/18</t>
+  </si>
+  <si>
+    <t>قسمتی کاشت و قسمتی نکاشت</t>
+  </si>
+  <si>
+    <t>نکاشت</t>
   </si>
 </sst>
 </file>
@@ -827,7 +1576,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +1649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1365,7 +2120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1412,15 +2167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,9 +2176,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,44 +2186,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1517,13 +2236,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1688,42 +2401,69 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,16 +2473,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,27 +2506,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,6 +2525,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1811,47 +2581,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2201,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -2214,45 +2996,911 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D8"/>
+  <dimension ref="B5:D144"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="160"/>
+      <c r="D37" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="160"/>
+      <c r="D39" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="160"/>
+      <c r="D41" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="160" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="160"/>
+      <c r="D43" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="160"/>
+      <c r="D44" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="160"/>
+      <c r="D45" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="160"/>
+      <c r="D47" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="160"/>
+      <c r="D48" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="160"/>
+      <c r="D50" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="160" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="160"/>
+      <c r="D53" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="160"/>
+      <c r="D55" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="160" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="160"/>
+      <c r="D57" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="160" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="160"/>
+      <c r="D59" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="160" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="160"/>
+      <c r="D61" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="160"/>
+      <c r="D63" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="160"/>
+      <c r="D66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="160" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="160"/>
+      <c r="D77" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="160"/>
+      <c r="D78" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="160"/>
+      <c r="D79" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="160" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="160"/>
+      <c r="D85" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="160"/>
+      <c r="D86" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="160" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="160"/>
+      <c r="D89" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="160"/>
+      <c r="D90" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="160"/>
+      <c r="D91" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="160"/>
+      <c r="D92" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="160"/>
+      <c r="D93" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="160"/>
+      <c r="D94" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="160"/>
+      <c r="D95" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="160" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="160"/>
+      <c r="D99" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" s="160"/>
+      <c r="D100" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104" s="160"/>
+      <c r="D104" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="160"/>
+      <c r="D105" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106" s="160"/>
+      <c r="D106" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="160"/>
+      <c r="D107" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="160"/>
+      <c r="D111" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D118" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D119" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120" s="160"/>
+      <c r="D120" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>3</v>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C131" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C135" s="160"/>
+      <c r="D135" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C136" s="160"/>
+      <c r="D136" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C137" s="160"/>
+      <c r="D137" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C138" s="160"/>
+      <c r="D138" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C139" s="160"/>
+      <c r="D139" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="160"/>
+      <c r="D143" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C88:C95"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2263,539 +3911,533 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D6:O31"/>
+  <dimension ref="D6:O29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
     <col min="15" max="15" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="4:15" ht="57" x14ac:dyDescent="0.2">
-      <c r="D7" s="16" t="s">
-        <v>34</v>
-      </c>
+    <row r="7" spans="4:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="167"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="8"/>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="166" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="39" t="s">
+        <v>310</v>
+      </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="H8" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" s="168" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>311</v>
+      </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="H9" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="169" t="s">
+        <v>349</v>
+      </c>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="12"/>
-      <c r="O9" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="9"/>
-      <c r="E10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>102</v>
+      <c r="E10" s="96" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="174" t="s">
+        <v>312</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="12"/>
-      <c r="O10" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
-      <c r="E11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>102</v>
+      <c r="E11" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="174" t="s">
+        <v>313</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="176" t="s">
+        <v>356</v>
+      </c>
+      <c r="I11" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="101"/>
       <c r="M11" s="12"/>
-      <c r="O11" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D12" s="9"/>
-      <c r="E12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>102</v>
+      <c r="E12" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="174" t="s">
+        <v>314</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="116" t="s">
-        <v>99</v>
-      </c>
+      <c r="H12" s="176"/>
+      <c r="I12" s="177"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="K12" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>79</v>
+      </c>
       <c r="M12" s="12"/>
-      <c r="O12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="162" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D13" s="9"/>
-      <c r="E13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>102</v>
+      <c r="E13" s="175" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>315</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="116"/>
+      <c r="H13" s="172" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="164" t="s">
+        <v>362</v>
+      </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="115" t="s">
-        <v>92</v>
-      </c>
+      <c r="K13" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="104"/>
       <c r="M13" s="12"/>
-      <c r="O13" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D14" s="9"/>
-      <c r="E14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>101</v>
+      <c r="E14" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>316</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>57</v>
+      <c r="H14" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="164" t="s">
+        <v>361</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="114"/>
+      <c r="K14" s="96" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="104"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>101</v>
+      <c r="E15" s="96" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>317</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>57</v>
+      <c r="H15" s="172" t="s">
+        <v>353</v>
+      </c>
+      <c r="I15" s="164" t="s">
+        <v>360</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="114"/>
+      <c r="K15" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="103" t="s">
+        <v>81</v>
+      </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="4:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D16" s="9"/>
-      <c r="E16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>101</v>
+      <c r="E16" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>318</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>57</v>
+      <c r="H16" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="164" t="s">
+        <v>359</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="104"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="4:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="172" t="s">
+        <v>351</v>
+      </c>
+      <c r="I17" s="164" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="4:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+      <c r="E18" s="98" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" s="173" t="s">
+        <v>357</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+      <c r="E19" s="27">
+        <v>5000</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="4:13" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D17" s="9"/>
-      <c r="E17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="29" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="27">
+        <v>6600</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="114"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="4:13" ht="57" x14ac:dyDescent="0.2">
-      <c r="D18" s="9"/>
-      <c r="E18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="4:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
-      <c r="E19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>105</v>
+      <c r="K19" s="27">
+        <v>4000</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="9"/>
-      <c r="E20" s="39">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="9"/>
+      <c r="E21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="101">
         <v>5000</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="39">
+      <c r="I21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="27">
         <v>6600</v>
       </c>
-      <c r="I20" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="39">
-        <v>4000</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="4:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="9"/>
-      <c r="E22" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="E22" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="105"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="27">
-        <v>5000</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>49</v>
+      <c r="H22" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="100" t="s">
+        <v>341</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="39">
-        <v>6600</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>50</v>
+      <c r="K22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="100" t="s">
+        <v>26</v>
       </c>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
-      <c r="E23" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="115"/>
+      <c r="E23" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="103"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>35</v>
+      <c r="H23" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="I23" s="163" t="s">
+        <v>34</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="38" t="s">
+      <c r="K23" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="97" t="s">
         <v>27</v>
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
-      <c r="E24" s="110" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="111"/>
+      <c r="E24" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="103"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>47</v>
+      <c r="H24" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="I24" s="163" t="s">
+        <v>33</v>
       </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="30" t="s">
+      <c r="K24" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="97" t="s">
         <v>28</v>
       </c>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
-      <c r="E25" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="111"/>
+      <c r="E25" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="103"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>46</v>
+      <c r="H25" s="96" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" s="97" t="s">
+        <v>342</v>
       </c>
       <c r="J25" s="11"/>
-      <c r="K25" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="30" t="s">
+      <c r="K25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="97" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
-      <c r="E26" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="111"/>
+      <c r="E26" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="103"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>45</v>
+      <c r="H26" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="J26" s="11"/>
-      <c r="K26" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L26" s="30" t="s">
+      <c r="K26" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="97" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
-      <c r="E27" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="111"/>
+      <c r="E27" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="103"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>44</v>
+      <c r="H27" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="97" t="s">
+        <v>344</v>
       </c>
       <c r="J27" s="11"/>
-      <c r="K27" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="30" t="s">
+      <c r="K27" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="97" t="s">
         <v>31</v>
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="9"/>
-      <c r="E28" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="111"/>
+      <c r="E28" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="109"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>43</v>
+      <c r="H28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="99" t="s">
+        <v>345</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="30" t="s">
+      <c r="K28" s="24" t="s">
         <v>32</v>
       </c>
+      <c r="L28" s="99" t="s">
+        <v>25</v>
+      </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="113"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
+    <row r="29" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -2807,7 +4449,7 @@
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2827,7 +4469,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="119" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -2835,132 +4477,132 @@
       <c r="F3" s="119"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="131" t="s">
+      <c r="B5" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="E5" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="118"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="120"/>
+      <c r="C7" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -2969,76 +4611,82 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="132"/>
+      <c r="B18" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="116"/>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="118"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="120"/>
+      <c r="C20" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>23</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="121"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="F22" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -3047,12 +4695,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.9685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3083,383 +4725,388 @@
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="B3" s="119" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
       <c r="E3" s="119"/>
       <c r="F3" s="119"/>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="137"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="143"/>
-      <c r="J5" s="65" t="s">
+      <c r="B5" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="130"/>
+      <c r="J5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="E7" s="33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="F7" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="23" t="s">
+      <c r="B8" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="105"/>
-      <c r="J9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="45">
+      <c r="B9" s="94"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="91"/>
+      <c r="J9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135" t="s">
+      <c r="B10" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="J10" s="23" t="s">
+      <c r="F10" s="134"/>
+      <c r="J10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="138" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="23" t="s">
+      <c r="B11" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="45" t="s">
-        <v>55</v>
+      <c r="K11" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="139"/>
-      <c r="B12" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="138"/>
-      <c r="J12" s="23" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="125"/>
+      <c r="J12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="45" t="s">
-        <v>57</v>
+      <c r="K12" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="139"/>
-      <c r="B13" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="138"/>
-      <c r="J13" s="23" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="125"/>
+      <c r="J13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="42"/>
-      <c r="J14" s="47" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="30"/>
+      <c r="J14" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135" t="s">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="J15" s="23" t="s">
+      <c r="F15" s="134"/>
+      <c r="J15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="23" t="s">
+      <c r="B16" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="50" t="s">
-        <v>76</v>
+      <c r="K16" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>143</v>
+      <c r="B17" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>138</v>
+      <c r="B18" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="108"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="105"/>
-      <c r="J19" s="43"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="91"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="133" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135" t="s">
+      <c r="B20" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="136"/>
+      <c r="F20" s="134"/>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>144</v>
+      <c r="B21" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>136</v>
+      <c r="B22" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>146</v>
+      <c r="B23" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="B24" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -3467,11 +5114,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3502,120 +5144,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="K3" s="145" t="s">
+      <c r="B3" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="K3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="145"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="65">
         <v>965</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="65">
         <v>952</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="65">
         <v>8611</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="63">
         <v>830</v>
       </c>
-      <c r="I5" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>123</v>
+      <c r="I5" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="146"/>
-      <c r="K6" s="23" t="s">
+      <c r="A6" s="138"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="137"/>
+      <c r="K6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147"/>
-      <c r="B7" s="80">
+      <c r="A7" s="138"/>
+      <c r="B7" s="66">
         <v>987</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="67">
         <v>956</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="67">
         <v>964</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="67">
         <v>114</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="67">
         <v>8616</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="68">
         <v>102</v>
       </c>
-      <c r="I7" s="146"/>
-      <c r="K7" s="23" t="s">
+      <c r="I7" s="137"/>
+      <c r="K7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="44"/>
-      <c r="K8" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="45">
+      <c r="A8" s="32"/>
+      <c r="B8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="33">
         <v>14</v>
       </c>
     </row>
@@ -3625,26 +5267,26 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>56</v>
+      <c r="L9" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="45" t="s">
-        <v>57</v>
+      <c r="L10" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3653,11 +5295,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
-      <c r="K12" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>75</v>
+      <c r="K12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
@@ -3666,10 +5308,10 @@
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3679,11 +5321,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="50" t="s">
-        <v>76</v>
+      <c r="L14" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
@@ -3726,313 +5368,313 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="K3" s="137" t="s">
+      <c r="D3" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="K3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="137"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>128</v>
+      <c r="K5" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="D7" s="71"/>
+      <c r="E7" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="K7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D8" s="73">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>4</v>
+      </c>
+      <c r="F8" s="74">
+        <v>16</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D9" s="73">
+        <v>2</v>
+      </c>
+      <c r="E9" s="49">
+        <v>11</v>
+      </c>
+      <c r="F9" s="74">
+        <v>15</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D10" s="73">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
+        <v>14</v>
+      </c>
+      <c r="F10" s="74">
+        <v>14</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" s="73">
+        <v>4</v>
+      </c>
+      <c r="E11" s="49">
+        <v>8</v>
+      </c>
+      <c r="F11" s="74">
+        <v>13</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D12" s="73">
+        <v>5</v>
+      </c>
+      <c r="E12" s="49">
+        <v>3</v>
+      </c>
+      <c r="F12" s="74">
+        <v>12</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="23" t="s">
+    </row>
+    <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="73">
+        <v>6</v>
+      </c>
+      <c r="E13" s="49">
+        <v>16</v>
+      </c>
+      <c r="F13" s="74">
+        <v>11</v>
+      </c>
+      <c r="G13" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="137"/>
+      <c r="D14" s="73">
+        <v>7</v>
+      </c>
+      <c r="E14" s="49">
+        <v>12</v>
+      </c>
+      <c r="F14" s="74">
+        <v>10</v>
+      </c>
+      <c r="G14" s="138"/>
+      <c r="K14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="137"/>
+      <c r="D15" s="73">
+        <v>8</v>
+      </c>
+      <c r="E15" s="49">
+        <v>7</v>
+      </c>
+      <c r="F15" s="74">
         <v>9</v>
       </c>
-      <c r="L6" s="45">
+      <c r="G15" s="138"/>
+      <c r="K15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" s="73">
+        <v>9</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1</v>
+      </c>
+      <c r="F16" s="74">
+        <v>8</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" s="73">
+        <v>10</v>
+      </c>
+      <c r="E17" s="49">
+        <v>6</v>
+      </c>
+      <c r="F17" s="74">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="D7" s="85"/>
-      <c r="E7" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="K7" s="23" t="s">
+      <c r="K17" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="73">
+        <v>11</v>
+      </c>
+      <c r="E18" s="49">
+        <v>9</v>
+      </c>
+      <c r="F18" s="74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="73">
+        <v>12</v>
+      </c>
+      <c r="E19" s="49">
+        <v>13</v>
+      </c>
+      <c r="F19" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D20" s="73">
+        <v>13</v>
+      </c>
+      <c r="E20" s="49">
+        <v>2</v>
+      </c>
+      <c r="F20" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="73">
+        <v>14</v>
+      </c>
+      <c r="E21" s="49">
+        <v>15</v>
+      </c>
+      <c r="F21" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="73">
+        <v>15</v>
+      </c>
+      <c r="E22" s="49">
         <v>10</v>
       </c>
-      <c r="L7" s="45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D8" s="87">
+      <c r="F22" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="75">
+        <v>16</v>
+      </c>
+      <c r="E23" s="76">
+        <v>5</v>
+      </c>
+      <c r="F23" s="77">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
-        <v>4</v>
-      </c>
-      <c r="F8" s="88">
-        <v>16</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D9" s="87">
-        <v>2</v>
-      </c>
-      <c r="E9" s="63">
-        <v>11</v>
-      </c>
-      <c r="F9" s="88">
-        <v>15</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D10" s="87">
-        <v>3</v>
-      </c>
-      <c r="E10" s="63">
-        <v>14</v>
-      </c>
-      <c r="F10" s="88">
-        <v>14</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D11" s="87">
-        <v>4</v>
-      </c>
-      <c r="E11" s="63">
-        <v>8</v>
-      </c>
-      <c r="F11" s="88">
-        <v>13</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D12" s="87">
-        <v>5</v>
-      </c>
-      <c r="E12" s="63">
-        <v>3</v>
-      </c>
-      <c r="F12" s="88">
-        <v>12</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="87">
-        <v>6</v>
-      </c>
-      <c r="E13" s="63">
-        <v>16</v>
-      </c>
-      <c r="F13" s="88">
-        <v>11</v>
-      </c>
-      <c r="G13" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="146"/>
-      <c r="D14" s="87">
-        <v>7</v>
-      </c>
-      <c r="E14" s="63">
-        <v>12</v>
-      </c>
-      <c r="F14" s="88">
-        <v>10</v>
-      </c>
-      <c r="G14" s="147"/>
-      <c r="K14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="146"/>
-      <c r="D15" s="87">
-        <v>8</v>
-      </c>
-      <c r="E15" s="63">
-        <v>7</v>
-      </c>
-      <c r="F15" s="88">
-        <v>9</v>
-      </c>
-      <c r="G15" s="147"/>
-      <c r="K15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D16" s="87">
-        <v>9</v>
-      </c>
-      <c r="E16" s="63">
-        <v>1</v>
-      </c>
-      <c r="F16" s="88">
-        <v>8</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="62">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="D17" s="87">
-        <v>10</v>
-      </c>
-      <c r="E17" s="63">
-        <v>6</v>
-      </c>
-      <c r="F17" s="88">
-        <v>7</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="62">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="87">
-        <v>11</v>
-      </c>
-      <c r="E18" s="63">
-        <v>9</v>
-      </c>
-      <c r="F18" s="88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D19" s="87">
-        <v>12</v>
-      </c>
-      <c r="E19" s="63">
-        <v>13</v>
-      </c>
-      <c r="F19" s="88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D20" s="87">
-        <v>13</v>
-      </c>
-      <c r="E20" s="63">
-        <v>2</v>
-      </c>
-      <c r="F20" s="88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="87">
-        <v>14</v>
-      </c>
-      <c r="E21" s="63">
-        <v>15</v>
-      </c>
-      <c r="F21" s="88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D22" s="87">
-        <v>15</v>
-      </c>
-      <c r="E22" s="63">
-        <v>10</v>
-      </c>
-      <c r="F22" s="88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="89">
-        <v>16</v>
-      </c>
-      <c r="E23" s="90">
-        <v>5</v>
-      </c>
-      <c r="F23" s="91">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="F24" s="57" t="s">
-        <v>75</v>
+      <c r="F24" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4063,350 +5705,350 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="148" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="L3" s="137" t="s">
+      <c r="D3" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="L3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="137"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="82" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="L5" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>128</v>
+      <c r="L5" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>86</v>
+      <c r="D6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="33">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="86"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="72"/>
       <c r="H7" s="1"/>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="33">
         <v>10</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="83" t="s">
-        <v>116</v>
+      <c r="S7" s="69" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="87">
+      <c r="D8" s="73">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="49">
         <v>5</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="49">
         <v>10</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="74">
         <v>12</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="33">
         <v>4</v>
       </c>
       <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="83" t="s">
-        <v>117</v>
+      <c r="S8" s="69" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="87">
+      <c r="C9" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="73">
         <v>2</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="49">
         <v>10</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="49">
         <v>1</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="74">
         <v>11</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="45">
+      <c r="L9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="146"/>
-      <c r="D10" s="87">
+      <c r="C10" s="137"/>
+      <c r="D10" s="73">
         <v>3</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="49">
         <v>2</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="49">
         <v>3</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="74">
         <v>10</v>
       </c>
-      <c r="H10" s="147"/>
-      <c r="L10" s="23" t="s">
+      <c r="H10" s="138"/>
+      <c r="L10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="45" t="s">
-        <v>112</v>
+      <c r="M10" s="33" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="146"/>
-      <c r="D11" s="87">
+      <c r="C11" s="137"/>
+      <c r="D11" s="73">
         <v>4</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="49">
         <v>11</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="49">
         <v>7</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="74">
         <v>9</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="L11" s="23" t="s">
+      <c r="H11" s="138"/>
+      <c r="L11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="45" t="s">
-        <v>57</v>
+      <c r="M11" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="D12" s="87">
+      <c r="D12" s="73">
         <v>5</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="49">
         <v>3</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="49">
         <v>5</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="74">
         <v>8</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="L12" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>110</v>
+      <c r="L12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="D13" s="87">
+      <c r="D13" s="73">
         <v>6</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="49">
         <v>7</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="49">
         <v>2</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="74">
         <v>7</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="L13" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>130</v>
+      <c r="L13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
-      <c r="D14" s="87">
+      <c r="D14" s="73">
         <v>7</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="49">
         <v>9</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="49">
         <v>9</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="74">
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="L14" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>75</v>
+      <c r="L14" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="D15" s="87">
+      <c r="D15" s="73">
         <v>8</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="49">
         <v>4</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="49">
         <v>6</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="74">
         <v>5</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:19" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="D16" s="87">
+      <c r="D16" s="73">
         <v>9</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="49">
         <v>1</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="49">
         <v>12</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="74">
         <v>4</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="50" t="s">
-        <v>76</v>
+      <c r="M16" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="D17" s="87">
+      <c r="D17" s="73">
         <v>10</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="49">
         <v>12</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="49">
         <v>11</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="74">
         <v>3</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="L17" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="62">
+      <c r="L17" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="48">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
-      <c r="D18" s="87">
+      <c r="D18" s="73">
         <v>11</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="49">
         <v>8</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="49">
         <v>4</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="74">
         <v>2</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="L18" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="62">
+      <c r="L18" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="48">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="89">
+      <c r="D19" s="75">
         <v>12</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="76">
         <v>6</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="76">
         <v>8</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="77">
         <v>1</v>
       </c>
       <c r="H19" s="1"/>
@@ -4416,20 +6058,20 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="57" t="s">
-        <v>75</v>
+      <c r="G20" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="23" spans="3:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4448,7 +6090,7 @@
   <dimension ref="C3:V20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D17"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4460,318 +6102,330 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="L3" s="137" t="s">
+      <c r="D3" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="L3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="137"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
+      <c r="S4" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
     </row>
     <row r="5" spans="3:22" ht="19.5" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="82" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="L5" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>128</v>
+      <c r="L5" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>86</v>
+      <c r="D6" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="33">
         <v>16</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="86"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="72"/>
       <c r="H7" s="1"/>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="87">
+      <c r="D8" s="73">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="49">
         <v>8</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="49">
         <v>6</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="74">
         <v>10</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="87">
+      <c r="C9" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="73">
         <v>2</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="49">
         <v>7</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="49">
         <v>5</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="74">
         <v>9</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="45">
+      <c r="L9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="146"/>
-      <c r="D10" s="87">
+      <c r="C10" s="137"/>
+      <c r="D10" s="73">
         <v>3</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="49">
         <v>3</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="49">
         <v>2</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="74">
         <v>8</v>
       </c>
-      <c r="H10" s="147"/>
-      <c r="L10" s="23" t="s">
+      <c r="H10" s="138"/>
+      <c r="L10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="45" t="s">
-        <v>73</v>
+      <c r="M10" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="146"/>
-      <c r="D11" s="87">
+      <c r="C11" s="137"/>
+      <c r="D11" s="73">
         <v>4</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="49">
         <v>1</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="49">
         <v>9</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="74">
         <v>7</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="L11" s="23" t="s">
+      <c r="H11" s="138"/>
+      <c r="L11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="45" t="s">
-        <v>57</v>
+      <c r="M11" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="D12" s="87">
+      <c r="D12" s="73">
         <v>5</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="49">
         <v>4</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="49">
         <v>10</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="74">
         <v>6</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="46" t="s">
-        <v>130</v>
+      <c r="M12" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="D13" s="87">
+      <c r="D13" s="73">
         <v>6</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="49">
         <v>2</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="49">
         <v>3</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="74">
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="L13" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>75</v>
+      <c r="L13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
-      <c r="D14" s="87">
+      <c r="D14" s="73">
         <v>7</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="49">
         <v>5</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="49">
         <v>8</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="74">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="D15" s="87">
+      <c r="D15" s="73">
         <v>8</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="49">
         <v>10</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="49">
         <v>1</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="74">
         <v>3</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="50" t="s">
-        <v>76</v>
+      <c r="M15" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="3:22" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="D16" s="87">
+      <c r="D16" s="73">
         <v>9</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="49">
         <v>9</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="49">
         <v>4</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="74">
         <v>2</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="L16" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="62">
+      <c r="L16" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="48">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="87">
+      <c r="D17" s="73">
         <v>10</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="76">
         <v>6</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="76">
         <v>7</v>
       </c>
-      <c r="G17" s="91">
+      <c r="G17" s="77">
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="L17" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="62">
+      <c r="L17" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="48">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
-      <c r="G18" s="57" t="s">
-        <v>75</v>
+      <c r="G18" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4818,1250 +6472,1255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="154" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="O1" s="157" t="s">
+      <c r="E1" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="O1" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="146"/>
+      <c r="W1" s="147" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="147"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="158"/>
+      <c r="E2" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="J2" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
+      <c r="O2" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="155"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="71"/>
+      <c r="B5" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="72"/>
+      <c r="O5" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="159"/>
-      <c r="W1" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="160"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="Q5" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="E2" s="151" t="s">
+      <c r="S5" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="73">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49">
+        <v>4</v>
+      </c>
+      <c r="C6" s="74">
+        <v>16</v>
+      </c>
+      <c r="E6" s="73">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <v>5</v>
+      </c>
+      <c r="G6" s="49">
+        <v>10</v>
+      </c>
+      <c r="H6" s="74">
+        <v>12</v>
+      </c>
+      <c r="J6" s="73">
+        <v>1</v>
+      </c>
+      <c r="K6" s="49">
+        <v>8</v>
+      </c>
+      <c r="L6" s="49">
+        <v>6</v>
+      </c>
+      <c r="M6" s="74">
+        <v>10</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="91"/>
+      <c r="W6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="73">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49">
+        <v>11</v>
+      </c>
+      <c r="C7" s="74">
+        <v>15</v>
+      </c>
+      <c r="E7" s="73">
+        <v>2</v>
+      </c>
+      <c r="F7" s="49">
+        <v>10</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1</v>
+      </c>
+      <c r="H7" s="74">
+        <v>11</v>
+      </c>
+      <c r="J7" s="73">
+        <v>2</v>
+      </c>
+      <c r="K7" s="49">
+        <v>7</v>
+      </c>
+      <c r="L7" s="49">
+        <v>5</v>
+      </c>
+      <c r="M7" s="74">
+        <v>9</v>
+      </c>
+      <c r="O7" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="143"/>
+      <c r="W7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X7" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="73">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49">
+        <v>14</v>
+      </c>
+      <c r="C8" s="74">
+        <v>14</v>
+      </c>
+      <c r="E8" s="73">
+        <v>3</v>
+      </c>
+      <c r="F8" s="49">
+        <v>2</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="74">
+        <v>10</v>
+      </c>
+      <c r="J8" s="73">
+        <v>3</v>
+      </c>
+      <c r="K8" s="49">
+        <v>3</v>
+      </c>
+      <c r="L8" s="49">
+        <v>2</v>
+      </c>
+      <c r="M8" s="74">
+        <v>8</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="73">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49">
+        <v>8</v>
+      </c>
+      <c r="C9" s="74">
+        <v>13</v>
+      </c>
+      <c r="E9" s="73">
+        <v>4</v>
+      </c>
+      <c r="F9" s="49">
+        <v>11</v>
+      </c>
+      <c r="G9" s="49">
+        <v>7</v>
+      </c>
+      <c r="H9" s="74">
+        <v>9</v>
+      </c>
+      <c r="J9" s="73">
+        <v>4</v>
+      </c>
+      <c r="K9" s="49">
+        <v>1</v>
+      </c>
+      <c r="L9" s="49">
+        <v>9</v>
+      </c>
+      <c r="M9" s="74">
+        <v>7</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="73">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49">
+        <v>3</v>
+      </c>
+      <c r="C10" s="74">
+        <v>12</v>
+      </c>
+      <c r="E10" s="73">
+        <v>5</v>
+      </c>
+      <c r="F10" s="49">
+        <v>3</v>
+      </c>
+      <c r="G10" s="49">
+        <v>5</v>
+      </c>
+      <c r="H10" s="74">
+        <v>8</v>
+      </c>
+      <c r="J10" s="73">
+        <v>5</v>
+      </c>
+      <c r="K10" s="49">
+        <v>4</v>
+      </c>
+      <c r="L10" s="49">
+        <v>10</v>
+      </c>
+      <c r="M10" s="74">
+        <v>6</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
-      <c r="J2" s="151" t="s">
+      <c r="R10" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="73">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49">
+        <v>16</v>
+      </c>
+      <c r="C11" s="74">
+        <v>11</v>
+      </c>
+      <c r="E11" s="73">
+        <v>6</v>
+      </c>
+      <c r="F11" s="49">
+        <v>7</v>
+      </c>
+      <c r="G11" s="49">
+        <v>2</v>
+      </c>
+      <c r="H11" s="74">
+        <v>7</v>
+      </c>
+      <c r="J11" s="73">
+        <v>6</v>
+      </c>
+      <c r="K11" s="49">
+        <v>2</v>
+      </c>
+      <c r="L11" s="49">
+        <v>3</v>
+      </c>
+      <c r="M11" s="74">
+        <v>5</v>
+      </c>
+      <c r="O11" s="94"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="91"/>
+      <c r="W11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="73">
+        <v>7</v>
+      </c>
+      <c r="B12" s="49">
+        <v>12</v>
+      </c>
+      <c r="C12" s="74">
+        <v>10</v>
+      </c>
+      <c r="E12" s="73">
+        <v>7</v>
+      </c>
+      <c r="F12" s="49">
+        <v>9</v>
+      </c>
+      <c r="G12" s="49">
+        <v>9</v>
+      </c>
+      <c r="H12" s="74">
+        <v>6</v>
+      </c>
+      <c r="J12" s="73">
+        <v>7</v>
+      </c>
+      <c r="K12" s="49">
+        <v>5</v>
+      </c>
+      <c r="L12" s="49">
+        <v>8</v>
+      </c>
+      <c r="M12" s="74">
+        <v>4</v>
+      </c>
+      <c r="O12" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="143"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="73">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49">
+        <v>7</v>
+      </c>
+      <c r="C13" s="74">
+        <v>9</v>
+      </c>
+      <c r="E13" s="73">
+        <v>8</v>
+      </c>
+      <c r="F13" s="49">
+        <v>4</v>
+      </c>
+      <c r="G13" s="49">
+        <v>6</v>
+      </c>
+      <c r="H13" s="74">
+        <v>5</v>
+      </c>
+      <c r="J13" s="73">
+        <v>8</v>
+      </c>
+      <c r="K13" s="49">
+        <v>10</v>
+      </c>
+      <c r="L13" s="49">
+        <v>1</v>
+      </c>
+      <c r="M13" s="74">
+        <v>3</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="73">
+        <v>9</v>
+      </c>
+      <c r="B14" s="49">
+        <v>1</v>
+      </c>
+      <c r="C14" s="74">
+        <v>8</v>
+      </c>
+      <c r="E14" s="73">
+        <v>9</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1</v>
+      </c>
+      <c r="G14" s="49">
+        <v>12</v>
+      </c>
+      <c r="H14" s="74">
+        <v>4</v>
+      </c>
+      <c r="J14" s="73">
+        <v>9</v>
+      </c>
+      <c r="K14" s="49">
+        <v>9</v>
+      </c>
+      <c r="L14" s="49">
+        <v>4</v>
+      </c>
+      <c r="M14" s="74">
+        <v>2</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <v>10</v>
+      </c>
+      <c r="B15" s="49">
+        <v>6</v>
+      </c>
+      <c r="C15" s="74">
+        <v>7</v>
+      </c>
+      <c r="E15" s="73">
+        <v>10</v>
+      </c>
+      <c r="F15" s="49">
+        <v>12</v>
+      </c>
+      <c r="G15" s="49">
+        <v>11</v>
+      </c>
+      <c r="H15" s="74">
+        <v>3</v>
+      </c>
+      <c r="J15" s="73">
+        <v>10</v>
+      </c>
+      <c r="K15" s="76">
+        <v>6</v>
+      </c>
+      <c r="L15" s="76">
+        <v>7</v>
+      </c>
+      <c r="M15" s="77">
+        <v>1</v>
+      </c>
+      <c r="O15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="153"/>
-      <c r="O2" s="161" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="168"/>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="P15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="73">
+        <v>11</v>
+      </c>
+      <c r="B16" s="49">
+        <v>9</v>
+      </c>
+      <c r="C16" s="74">
+        <v>6</v>
+      </c>
+      <c r="E16" s="73">
+        <v>11</v>
+      </c>
+      <c r="F16" s="49">
+        <v>8</v>
+      </c>
+      <c r="G16" s="49">
+        <v>4</v>
+      </c>
+      <c r="H16" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="94"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="91"/>
+    </row>
+    <row r="17" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49">
+        <v>13</v>
+      </c>
+      <c r="C17" s="74">
+        <v>5</v>
+      </c>
+      <c r="E17" s="75">
+        <v>12</v>
+      </c>
+      <c r="F17" s="76">
+        <v>6</v>
+      </c>
+      <c r="G17" s="76">
+        <v>8</v>
+      </c>
+      <c r="H17" s="77">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="86"/>
+      <c r="O17" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="S17" s="143"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="73">
+        <v>13</v>
+      </c>
+      <c r="B18" s="49">
+        <v>2</v>
+      </c>
+      <c r="C18" s="74">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="86"/>
+      <c r="O18" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="73">
+        <v>14</v>
+      </c>
+      <c r="B19" s="49">
+        <v>15</v>
+      </c>
+      <c r="C19" s="74">
         <v>3</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="86"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="86"/>
+      <c r="O19" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="W19" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="X19" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>15</v>
+      </c>
+      <c r="B20" s="49">
+        <v>10</v>
+      </c>
+      <c r="C20" s="74">
+        <v>2</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="H20" s="86"/>
+      <c r="J20" s="83"/>
+      <c r="M20" s="86"/>
+      <c r="O20" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <v>16</v>
+      </c>
+      <c r="B21" s="76">
+        <v>5</v>
+      </c>
+      <c r="C21" s="77">
         <v>1</v>
       </c>
-      <c r="G3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S3" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="W3" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="X3" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="S4" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="W4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="86"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="86"/>
-      <c r="O5" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="R5" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="S5" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="W5" s="23" t="s">
+      <c r="E21" s="83"/>
+      <c r="H21" s="86"/>
+      <c r="J21" s="83"/>
+      <c r="M21" s="86"/>
+      <c r="O21" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="W21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="87">
-        <v>1</v>
-      </c>
-      <c r="B6" s="63">
-        <v>4</v>
-      </c>
-      <c r="C6" s="88">
-        <v>16</v>
-      </c>
-      <c r="E6" s="87">
-        <v>1</v>
-      </c>
-      <c r="F6" s="63">
-        <v>5</v>
-      </c>
-      <c r="G6" s="63">
-        <v>10</v>
-      </c>
-      <c r="H6" s="88">
-        <v>12</v>
-      </c>
-      <c r="J6" s="87">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63">
-        <v>8</v>
-      </c>
-      <c r="L6" s="63">
-        <v>6</v>
-      </c>
-      <c r="M6" s="88">
-        <v>10</v>
-      </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="105"/>
-      <c r="W6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="87">
-        <v>2</v>
-      </c>
-      <c r="B7" s="63">
-        <v>11</v>
-      </c>
-      <c r="C7" s="88">
-        <v>15</v>
-      </c>
-      <c r="E7" s="87">
-        <v>2</v>
-      </c>
-      <c r="F7" s="63">
-        <v>10</v>
-      </c>
-      <c r="G7" s="63">
-        <v>1</v>
-      </c>
-      <c r="H7" s="88">
-        <v>11</v>
-      </c>
-      <c r="J7" s="87">
-        <v>2</v>
-      </c>
-      <c r="K7" s="63">
-        <v>7</v>
-      </c>
-      <c r="L7" s="63">
-        <v>5</v>
-      </c>
-      <c r="M7" s="88">
-        <v>9</v>
-      </c>
-      <c r="O7" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="156"/>
-      <c r="W7" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="X7" s="45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="87">
-        <v>3</v>
-      </c>
-      <c r="B8" s="63">
-        <v>14</v>
-      </c>
-      <c r="C8" s="88">
-        <v>14</v>
-      </c>
-      <c r="E8" s="87">
-        <v>3</v>
-      </c>
-      <c r="F8" s="63">
-        <v>2</v>
-      </c>
-      <c r="G8" s="63">
-        <v>3</v>
-      </c>
-      <c r="H8" s="88">
-        <v>10</v>
-      </c>
-      <c r="J8" s="87">
-        <v>3</v>
-      </c>
-      <c r="K8" s="63">
-        <v>3</v>
-      </c>
-      <c r="L8" s="63">
-        <v>2</v>
-      </c>
-      <c r="M8" s="88">
-        <v>8</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="S8" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="87">
-        <v>4</v>
-      </c>
-      <c r="B9" s="63">
-        <v>8</v>
-      </c>
-      <c r="C9" s="88">
-        <v>13</v>
-      </c>
-      <c r="E9" s="87">
-        <v>4</v>
-      </c>
-      <c r="F9" s="63">
-        <v>11</v>
-      </c>
-      <c r="G9" s="63">
-        <v>7</v>
-      </c>
-      <c r="H9" s="88">
-        <v>9</v>
-      </c>
-      <c r="J9" s="87">
-        <v>4</v>
-      </c>
-      <c r="K9" s="63">
-        <v>1</v>
-      </c>
-      <c r="L9" s="63">
-        <v>9</v>
-      </c>
-      <c r="M9" s="88">
-        <v>7</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="W9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="87">
-        <v>5</v>
-      </c>
-      <c r="B10" s="63">
-        <v>3</v>
-      </c>
-      <c r="C10" s="88">
-        <v>12</v>
-      </c>
-      <c r="E10" s="87">
-        <v>5</v>
-      </c>
-      <c r="F10" s="63">
-        <v>3</v>
-      </c>
-      <c r="G10" s="63">
-        <v>5</v>
-      </c>
-      <c r="H10" s="88">
-        <v>8</v>
-      </c>
-      <c r="J10" s="87">
-        <v>5</v>
-      </c>
-      <c r="K10" s="63">
-        <v>4</v>
-      </c>
-      <c r="L10" s="63">
-        <v>10</v>
-      </c>
-      <c r="M10" s="88">
-        <v>6</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q10" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="87">
-        <v>6</v>
-      </c>
-      <c r="B11" s="63">
-        <v>16</v>
-      </c>
-      <c r="C11" s="88">
-        <v>11</v>
-      </c>
-      <c r="E11" s="87">
-        <v>6</v>
-      </c>
-      <c r="F11" s="63">
-        <v>7</v>
-      </c>
-      <c r="G11" s="63">
-        <v>2</v>
-      </c>
-      <c r="H11" s="88">
-        <v>7</v>
-      </c>
-      <c r="J11" s="87">
-        <v>6</v>
-      </c>
-      <c r="K11" s="63">
-        <v>2</v>
-      </c>
-      <c r="L11" s="63">
-        <v>3</v>
-      </c>
-      <c r="M11" s="88">
-        <v>5</v>
-      </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="105"/>
-      <c r="W11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="X11" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="87">
-        <v>7</v>
-      </c>
-      <c r="B12" s="63">
-        <v>12</v>
-      </c>
-      <c r="C12" s="88">
-        <v>10</v>
-      </c>
-      <c r="E12" s="87">
-        <v>7</v>
-      </c>
-      <c r="F12" s="63">
-        <v>9</v>
-      </c>
-      <c r="G12" s="63">
-        <v>9</v>
-      </c>
-      <c r="H12" s="88">
-        <v>6</v>
-      </c>
-      <c r="J12" s="87">
-        <v>7</v>
-      </c>
-      <c r="K12" s="63">
-        <v>5</v>
-      </c>
-      <c r="L12" s="63">
-        <v>8</v>
-      </c>
-      <c r="M12" s="88">
-        <v>4</v>
-      </c>
-      <c r="O12" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="155" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="156"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="87">
-        <v>8</v>
-      </c>
-      <c r="B13" s="63">
-        <v>7</v>
-      </c>
-      <c r="C13" s="88">
-        <v>9</v>
-      </c>
-      <c r="E13" s="87">
-        <v>8</v>
-      </c>
-      <c r="F13" s="63">
-        <v>4</v>
-      </c>
-      <c r="G13" s="63">
-        <v>6</v>
-      </c>
-      <c r="H13" s="88">
-        <v>5</v>
-      </c>
-      <c r="J13" s="87">
-        <v>8</v>
-      </c>
-      <c r="K13" s="63">
-        <v>10</v>
-      </c>
-      <c r="L13" s="63">
-        <v>1</v>
-      </c>
-      <c r="M13" s="88">
-        <v>3</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="S13" s="67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="87">
-        <v>9</v>
-      </c>
-      <c r="B14" s="63">
-        <v>1</v>
-      </c>
-      <c r="C14" s="88">
-        <v>8</v>
-      </c>
-      <c r="E14" s="87">
-        <v>9</v>
-      </c>
-      <c r="F14" s="63">
-        <v>1</v>
-      </c>
-      <c r="G14" s="63">
-        <v>12</v>
-      </c>
-      <c r="H14" s="88">
-        <v>4</v>
-      </c>
-      <c r="J14" s="87">
-        <v>9</v>
-      </c>
-      <c r="K14" s="63">
-        <v>9</v>
-      </c>
-      <c r="L14" s="63">
-        <v>4</v>
-      </c>
-      <c r="M14" s="88">
-        <v>2</v>
-      </c>
-      <c r="O14" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="R14" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="S14" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87">
-        <v>10</v>
-      </c>
-      <c r="B15" s="63">
-        <v>6</v>
-      </c>
-      <c r="C15" s="88">
-        <v>7</v>
-      </c>
-      <c r="E15" s="87">
-        <v>10</v>
-      </c>
-      <c r="F15" s="63">
-        <v>12</v>
-      </c>
-      <c r="G15" s="63">
-        <v>11</v>
-      </c>
-      <c r="H15" s="88">
-        <v>3</v>
-      </c>
-      <c r="J15" s="87">
-        <v>10</v>
-      </c>
-      <c r="K15" s="90">
-        <v>6</v>
-      </c>
-      <c r="L15" s="90">
-        <v>7</v>
-      </c>
-      <c r="M15" s="91">
-        <v>1</v>
-      </c>
-      <c r="O15" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="R15" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="S15" s="67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="87">
-        <v>11</v>
-      </c>
-      <c r="B16" s="63">
-        <v>9</v>
-      </c>
-      <c r="C16" s="88">
-        <v>6</v>
-      </c>
-      <c r="E16" s="87">
-        <v>11</v>
-      </c>
-      <c r="F16" s="63">
-        <v>8</v>
-      </c>
-      <c r="G16" s="63">
-        <v>4</v>
-      </c>
-      <c r="H16" s="88">
-        <v>2</v>
-      </c>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="108"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="105"/>
-    </row>
-    <row r="17" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87">
-        <v>12</v>
-      </c>
-      <c r="B17" s="63">
-        <v>13</v>
-      </c>
-      <c r="C17" s="88">
-        <v>5</v>
-      </c>
-      <c r="E17" s="89">
-        <v>12</v>
-      </c>
-      <c r="F17" s="90">
-        <v>6</v>
-      </c>
-      <c r="G17" s="90">
-        <v>8</v>
-      </c>
-      <c r="H17" s="91">
-        <v>1</v>
-      </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="100"/>
-      <c r="O17" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" s="156"/>
-    </row>
-    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="87">
-        <v>13</v>
-      </c>
-      <c r="B18" s="63">
-        <v>2</v>
-      </c>
-      <c r="C18" s="88">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="100"/>
-      <c r="O18" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="P18" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q18" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="87">
-        <v>14</v>
-      </c>
-      <c r="B19" s="63">
-        <v>15</v>
-      </c>
-      <c r="C19" s="88">
-        <v>3</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="100"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="100"/>
-      <c r="O19" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="S19" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="W19" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="X19" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87">
-        <v>15</v>
-      </c>
-      <c r="B20" s="63">
-        <v>10</v>
-      </c>
-      <c r="C20" s="88">
-        <v>2</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="H20" s="100"/>
-      <c r="J20" s="97"/>
-      <c r="M20" s="100"/>
-      <c r="O20" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="R20" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="S20" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="W20" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
-        <v>16</v>
-      </c>
-      <c r="B21" s="90">
-        <v>5</v>
-      </c>
-      <c r="C21" s="91">
-        <v>1</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="H21" s="100"/>
-      <c r="J21" s="97"/>
-      <c r="M21" s="100"/>
-      <c r="O21" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="W21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X21" s="45">
+      <c r="X21" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="100"/>
-      <c r="J22" s="97"/>
-      <c r="M22" s="100"/>
-      <c r="W22" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="X22" s="45">
+      <c r="B22" s="50"/>
+      <c r="C22" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="86"/>
+      <c r="J22" s="83"/>
+      <c r="M22" s="86"/>
+      <c r="W22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X22" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="33">
         <v>16</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" s="100"/>
-      <c r="O23" s="157" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="159"/>
-      <c r="W23" s="23" t="s">
+      <c r="H23" s="86"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="86"/>
+      <c r="O23" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="146"/>
+      <c r="W23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="45" t="s">
-        <v>56</v>
+      <c r="X23" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="33">
         <v>7</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="23" t="s">
+      <c r="C24" s="86"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="33">
         <v>10</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="23" t="s">
+      <c r="H24" s="86"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="33">
         <v>16</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="O24" s="78" t="s">
+      <c r="M24" s="86"/>
+      <c r="O24" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="79">
+      <c r="P24" s="65">
         <v>965</v>
       </c>
-      <c r="Q24" s="79">
+      <c r="Q24" s="65">
         <v>952</v>
       </c>
-      <c r="R24" s="79" t="s">
+      <c r="R24" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="S24" s="79" t="s">
+      <c r="S24" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="79">
+      <c r="T24" s="65">
         <v>8611</v>
       </c>
-      <c r="U24" s="77">
+      <c r="U24" s="63">
         <v>830</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="W24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="X24" s="45" t="s">
-        <v>57</v>
+      <c r="X24" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="33">
         <v>15</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="23" t="s">
+      <c r="C25" s="86"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="33">
         <v>4</v>
       </c>
-      <c r="H25" s="100"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="23" t="s">
+      <c r="H25" s="86"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="33">
         <v>12</v>
       </c>
-      <c r="M25" s="100"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="76"/>
-      <c r="W25" s="23" t="s">
+      <c r="M25" s="86"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="62"/>
+      <c r="W25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="X25" s="46" t="s">
+      <c r="X25" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="33">
         <v>3</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="C26" s="86"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="33">
         <v>12</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="23" t="s">
+      <c r="H26" s="86"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="33">
         <v>4</v>
       </c>
-      <c r="M26" s="100"/>
-      <c r="O26" s="80">
+      <c r="M26" s="86"/>
+      <c r="O26" s="66">
         <v>987</v>
       </c>
-      <c r="P26" s="74" t="s">
+      <c r="P26" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="81">
+      <c r="Q26" s="67">
         <v>956</v>
       </c>
-      <c r="R26" s="81">
+      <c r="R26" s="67">
         <v>964</v>
       </c>
-      <c r="S26" s="81">
+      <c r="S26" s="67">
         <v>114</v>
       </c>
-      <c r="T26" s="81">
+      <c r="T26" s="67">
         <v>8616</v>
       </c>
-      <c r="U26" s="82">
+      <c r="U26" s="68">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="45">
+      <c r="A27" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="33">
         <v>16</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="23" t="s">
+      <c r="C27" s="86"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="86"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="33">
+        <v>10</v>
+      </c>
+      <c r="M27" s="86"/>
+      <c r="O27" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+    </row>
+    <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="86"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="100"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="45">
-        <v>10</v>
-      </c>
-      <c r="M27" s="100"/>
-      <c r="O27" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-    </row>
-    <row r="28" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="45" t="s">
+      <c r="M28" s="86"/>
+    </row>
+    <row r="29" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="23" t="s">
+      <c r="G29" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="86"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="100"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" s="100"/>
-    </row>
-    <row r="29" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="100"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="46" t="s">
+      <c r="L29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="86"/>
+    </row>
+    <row r="30" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="100"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="100"/>
-    </row>
-    <row r="30" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+      <c r="G30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="100"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" s="100"/>
+      <c r="L30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="103"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="89"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="O23:U23"/>
@@ -6072,11 +7731,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/مدیریت کشت مزرعه 1403.xlsx
+++ b/مدیریت کشت مزرعه 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="عکس هوایی" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="383">
   <si>
     <t>I</t>
   </si>
@@ -1353,18 +1353,6 @@
 1403/03/02</t>
   </si>
   <si>
-    <t>N.8</t>
-  </si>
-  <si>
-    <t>N.9</t>
-  </si>
-  <si>
-    <t>N.10</t>
-  </si>
-  <si>
-    <t>N.11</t>
-  </si>
-  <si>
     <t>N.1
 450 m2
 شیرودی
@@ -1450,6 +1438,77 @@
   </si>
   <si>
     <t>نکاشت</t>
+  </si>
+  <si>
+    <t>N.11
+شیرودی
+1403/03/22</t>
+  </si>
+  <si>
+    <t>N.8
+شیرودی
+1403/03/22</t>
+  </si>
+  <si>
+    <t>N.9
+شیرودی
+1403/03/22</t>
+  </si>
+  <si>
+    <t>N.10
+شیرودی
+1403/03/22</t>
+  </si>
+  <si>
+    <t>1403-03-21</t>
+  </si>
+  <si>
+    <t>1403-03-22</t>
+  </si>
+  <si>
+    <t>1403-03-23</t>
+  </si>
+  <si>
+    <t>1403-03-24</t>
+  </si>
+  <si>
+    <t>1403-03-25</t>
+  </si>
+  <si>
+    <t>1403-03-26</t>
+  </si>
+  <si>
+    <t>1403-03-27</t>
+  </si>
+  <si>
+    <t>1403-03-28</t>
+  </si>
+  <si>
+    <t>1403-03-29</t>
+  </si>
+  <si>
+    <t>1403-03-30</t>
+  </si>
+  <si>
+    <t>1403-03-31</t>
+  </si>
+  <si>
+    <t>برگزاری کلاس آموزشی بهمراه مرکزجهادکشاورزی سلیمان آباد با موضوع مبارزه با کرم ساقه خوار برنج</t>
+  </si>
+  <si>
+    <t>کشت مزرعه رقم شیرودی در ناحیه z5</t>
+  </si>
+  <si>
+    <t>آماده سازی تجهیزات جهت سمپاشی وجین</t>
+  </si>
+  <si>
+    <t>قطع آب کرت هایی از مزرعه برای آماده سازی سمپاشی وجین</t>
+  </si>
+  <si>
+    <t>راه اندازی صفحه ویراستی مرکز چپرسر</t>
+  </si>
+  <si>
+    <t>جامانده از کشت تنها کرت خزانه N7 و دو کرت نیاز به واکاری در ناحیه z1</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2410,9 +2469,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2422,28 +2535,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2458,19 +2583,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2494,18 +2616,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,6 +2636,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,70 +2691,13 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2983,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -2996,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D144"/>
+  <dimension ref="B5:D158"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119:C120"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3244,7 @@
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="177" t="s">
         <v>270</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3187,13 +3252,13 @@
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="160"/>
+      <c r="C37" s="177"/>
       <c r="D37" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="160" t="s">
+      <c r="C38" s="177" t="s">
         <v>271</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3201,13 +3266,13 @@
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="160"/>
+      <c r="C39" s="177"/>
       <c r="D39" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="177" t="s">
         <v>237</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3215,13 +3280,13 @@
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="160"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="177" t="s">
         <v>238</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3229,25 +3294,25 @@
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="160"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="160"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="160"/>
+      <c r="C45" s="177"/>
       <c r="D45" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="177" t="s">
         <v>239</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3255,19 +3320,19 @@
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="160"/>
+      <c r="C47" s="177"/>
       <c r="D47" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="160"/>
+      <c r="C48" s="177"/>
       <c r="D48" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="160" t="s">
+      <c r="C49" s="177" t="s">
         <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3275,7 +3340,7 @@
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="160"/>
+      <c r="C50" s="177"/>
       <c r="D50" s="1" t="s">
         <v>256</v>
       </c>
@@ -3289,7 +3354,7 @@
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="160" t="s">
+      <c r="C52" s="177" t="s">
         <v>242</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3297,13 +3362,13 @@
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="160"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="177" t="s">
         <v>243</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3311,13 +3376,13 @@
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="160"/>
+      <c r="C55" s="177"/>
       <c r="D55" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="160" t="s">
+      <c r="C56" s="177" t="s">
         <v>244</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3325,13 +3390,13 @@
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="160"/>
+      <c r="C57" s="177"/>
       <c r="D57" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="160" t="s">
+      <c r="C58" s="177" t="s">
         <v>245</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3339,13 +3404,13 @@
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="160"/>
+      <c r="C59" s="177"/>
       <c r="D59" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="177" t="s">
         <v>246</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3353,13 +3418,13 @@
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="160"/>
+      <c r="C61" s="177"/>
       <c r="D61" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="160" t="s">
+      <c r="C62" s="177" t="s">
         <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3367,7 +3432,7 @@
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="160"/>
+      <c r="C63" s="177"/>
       <c r="D63" s="1" t="s">
         <v>247</v>
       </c>
@@ -3378,7 +3443,7 @@
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="160" t="s">
+      <c r="C65" s="177" t="s">
         <v>216</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -3386,7 +3451,7 @@
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="160"/>
+      <c r="C66" s="177"/>
       <c r="D66" s="1" t="s">
         <v>234</v>
       </c>
@@ -3443,7 +3508,7 @@
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="160" t="s">
+      <c r="C76" s="177" t="s">
         <v>224</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3451,19 +3516,19 @@
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="160"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="160"/>
+      <c r="C78" s="177"/>
       <c r="D78" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="160"/>
+      <c r="C79" s="177"/>
       <c r="D79" s="1" t="s">
         <v>230</v>
       </c>
@@ -3495,7 +3560,7 @@
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="160" t="s">
+      <c r="C84" s="177" t="s">
         <v>180</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -3503,13 +3568,13 @@
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="160"/>
+      <c r="C85" s="177"/>
       <c r="D85" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="160"/>
+      <c r="C86" s="177"/>
       <c r="D86" s="1" t="s">
         <v>214</v>
       </c>
@@ -3520,7 +3585,7 @@
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="160" t="s">
+      <c r="C88" s="177" t="s">
         <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -3528,43 +3593,43 @@
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="160"/>
+      <c r="C89" s="177"/>
       <c r="D89" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="160"/>
+      <c r="C90" s="177"/>
       <c r="D90" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="160"/>
+      <c r="C91" s="177"/>
       <c r="D91" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="160"/>
+      <c r="C92" s="177"/>
       <c r="D92" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="160"/>
+      <c r="C93" s="177"/>
       <c r="D93" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="160"/>
+      <c r="C94" s="177"/>
       <c r="D94" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" s="160"/>
+      <c r="C95" s="177"/>
       <c r="D95" s="1" t="s">
         <v>210</v>
       </c>
@@ -3583,7 +3648,7 @@
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="160" t="s">
+      <c r="C98" s="177" t="s">
         <v>185</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -3591,13 +3656,13 @@
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="160"/>
+      <c r="C99" s="177"/>
       <c r="D99" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="160"/>
+      <c r="C100" s="177"/>
       <c r="D100" s="1" t="s">
         <v>203</v>
       </c>
@@ -3613,7 +3678,7 @@
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="160" t="s">
+      <c r="C103" s="177" t="s">
         <v>188</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -3621,25 +3686,25 @@
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="160"/>
+      <c r="C104" s="177"/>
       <c r="D104" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="160"/>
+      <c r="C105" s="177"/>
       <c r="D105" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="160"/>
+      <c r="C106" s="177"/>
       <c r="D106" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="160"/>
+      <c r="C107" s="177"/>
       <c r="D107" s="1" t="s">
         <v>200</v>
       </c>
@@ -3655,7 +3720,7 @@
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="160" t="s">
+      <c r="C110" s="177" t="s">
         <v>191</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -3663,7 +3728,7 @@
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="160"/>
+      <c r="C111" s="177"/>
       <c r="D111" s="1" t="s">
         <v>195</v>
       </c>
@@ -3710,7 +3775,7 @@
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="160" t="s">
+      <c r="C119" s="177" t="s">
         <v>159</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3718,7 +3783,7 @@
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="160"/>
+      <c r="C120" s="177"/>
       <c r="D120" s="1" t="s">
         <v>334</v>
       </c>
@@ -3804,7 +3869,7 @@
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="160" t="s">
+      <c r="C134" s="177" t="s">
         <v>146</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3812,31 +3877,31 @@
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="160"/>
+      <c r="C135" s="177"/>
       <c r="D135" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="160"/>
+      <c r="C136" s="177"/>
       <c r="D136" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137" s="160"/>
+      <c r="C137" s="177"/>
       <c r="D137" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138" s="160"/>
+      <c r="C138" s="177"/>
       <c r="D138" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139" s="160"/>
+      <c r="C139" s="177"/>
       <c r="D139" s="1" t="s">
         <v>155</v>
       </c>
@@ -3855,7 +3920,7 @@
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="160" t="s">
+      <c r="C142" s="177" t="s">
         <v>148</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -3863,7 +3928,7 @@
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="160"/>
+      <c r="C143" s="177"/>
       <c r="D143" s="1" t="s">
         <v>139</v>
       </c>
@@ -3876,8 +3941,95 @@
         <v>139</v>
       </c>
     </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C146" s="177" t="s">
+        <v>367</v>
+      </c>
+      <c r="D146" s="179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="177"/>
+      <c r="D147" s="103" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="103" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="103" t="s">
+        <v>368</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="103" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="103" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C152" s="103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C153" s="103" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C154" s="103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="103" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="103" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C158" s="103" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C98:C100"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C119:C120"/>
@@ -3894,12 +4046,6 @@
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C88:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3913,8 +4059,8 @@
   </sheetPr>
   <dimension ref="D6:O29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3933,7 +4079,7 @@
   <sheetData>
     <row r="6" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="167"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
@@ -3943,7 +4089,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="8"/>
-      <c r="O7" s="166" t="s">
+      <c r="O7" s="109" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3955,16 +4101,16 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="I8" s="168" t="s">
-        <v>348</v>
+        <v>364</v>
+      </c>
+      <c r="I8" s="178" t="s">
+        <v>365</v>
       </c>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
       <c r="M8" s="12"/>
-      <c r="O8" s="165" t="s">
+      <c r="O8" s="108" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3978,10 +4124,10 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="I9" s="169" t="s">
-        <v>349</v>
+        <v>363</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>362</v>
       </c>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
@@ -3996,12 +4142,12 @@
       <c r="E10" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="174" t="s">
+      <c r="F10" s="115" t="s">
         <v>312</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="101"/>
@@ -4015,15 +4161,15 @@
       <c r="E11" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="F11" s="174" t="s">
+      <c r="F11" s="115" t="s">
         <v>313</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="176" t="s">
-        <v>356</v>
-      </c>
-      <c r="I11" s="177" t="s">
-        <v>363</v>
+      <c r="H11" s="126" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>359</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="39" t="s">
@@ -4040,47 +4186,47 @@
       <c r="E12" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="F12" s="174" t="s">
+      <c r="F12" s="115" t="s">
         <v>314</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="11"/>
       <c r="K12" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="L12" s="105" t="s">
+      <c r="L12" s="123" t="s">
         <v>79</v>
       </c>
       <c r="M12" s="12"/>
-      <c r="O12" s="162" t="s">
-        <v>364</v>
+      <c r="O12" s="105" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="4:15" ht="57" x14ac:dyDescent="0.2">
       <c r="D13" s="9"/>
-      <c r="E13" s="175" t="s">
+      <c r="E13" s="116" t="s">
         <v>305</v>
       </c>
       <c r="F13" s="97" t="s">
         <v>315</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="172" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="164" t="s">
-        <v>362</v>
+      <c r="H13" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>358</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="12"/>
-      <c r="O13" s="161" t="s">
-        <v>365</v>
+      <c r="O13" s="104" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="4:15" ht="57" x14ac:dyDescent="0.2">
@@ -4092,17 +4238,17 @@
         <v>316</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="172" t="s">
-        <v>354</v>
-      </c>
-      <c r="I14" s="164" t="s">
-        <v>361</v>
+      <c r="H14" s="113" t="s">
+        <v>350</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>357</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="96" t="s">
         <v>331</v>
       </c>
-      <c r="L14" s="104"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="4:15" ht="57" x14ac:dyDescent="0.2">
@@ -4114,17 +4260,17 @@
         <v>317</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="172" t="s">
-        <v>353</v>
-      </c>
-      <c r="I15" s="164" t="s">
-        <v>360</v>
+      <c r="H15" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>356</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="119" t="s">
         <v>81</v>
       </c>
       <c r="M15" s="12"/>
@@ -4138,17 +4284,17 @@
         <v>318</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="172" t="s">
-        <v>352</v>
-      </c>
-      <c r="I16" s="164" t="s">
-        <v>359</v>
+      <c r="H16" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>355</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="96" t="s">
         <v>329</v>
       </c>
-      <c r="L16" s="104"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="4:13" ht="57" x14ac:dyDescent="0.2">
@@ -4160,11 +4306,11 @@
         <v>319</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="172" t="s">
-        <v>351</v>
-      </c>
-      <c r="I17" s="164" t="s">
-        <v>358</v>
+      <c r="H17" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>354</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="96" t="s">
@@ -4185,10 +4331,10 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="I18" s="173" t="s">
-        <v>357</v>
+        <v>346</v>
+      </c>
+      <c r="I18" s="114" t="s">
+        <v>353</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="98" t="s">
@@ -4261,10 +4407,10 @@
     </row>
     <row r="22" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="9"/>
-      <c r="E22" s="106" t="s">
+      <c r="E22" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="105"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="11"/>
       <c r="H22" s="102" t="s">
         <v>340</v>
@@ -4283,15 +4429,15 @@
     </row>
     <row r="23" spans="4:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="103"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="11"/>
       <c r="H23" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="I23" s="163" t="s">
+      <c r="I23" s="106" t="s">
         <v>34</v>
       </c>
       <c r="J23" s="11"/>
@@ -4305,15 +4451,15 @@
     </row>
     <row r="24" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="103"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="11"/>
       <c r="H24" s="96" t="s">
         <v>338</v>
       </c>
-      <c r="I24" s="163" t="s">
+      <c r="I24" s="106" t="s">
         <v>33</v>
       </c>
       <c r="J24" s="11"/>
@@ -4327,10 +4473,10 @@
     </row>
     <row r="25" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="103"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="11"/>
       <c r="H25" s="96" t="s">
         <v>337</v>
@@ -4349,10 +4495,10 @@
     </row>
     <row r="26" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="103"/>
+      <c r="F26" s="119"/>
       <c r="G26" s="11"/>
       <c r="H26" s="96" t="s">
         <v>336</v>
@@ -4371,10 +4517,10 @@
     </row>
     <row r="27" spans="4:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="103"/>
+      <c r="F27" s="119"/>
       <c r="G27" s="11"/>
       <c r="H27" s="96" t="s">
         <v>335</v>
@@ -4393,10 +4539,10 @@
     </row>
     <row r="28" spans="4:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="9"/>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="109"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="11"/>
       <c r="H28" s="25" t="s">
         <v>35</v>
@@ -4427,17 +4573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
@@ -4468,26 +4614,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="116"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="118"/>
+      <c r="F5" s="140"/>
     </row>
     <row r="6" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -4510,99 +4656,99 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="110"/>
+      <c r="F7" s="128"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
@@ -4611,17 +4757,17 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="116"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="118"/>
+      <c r="F18" s="140"/>
     </row>
     <row r="19" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
@@ -4644,25 +4790,25 @@
       <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="128"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>23</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="129"/>
     </row>
     <row r="22" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
@@ -4677,16 +4823,10 @@
       <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E7:E16"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F16"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -4695,6 +4835,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E7:E16"/>
+    <mergeCell ref="D7:D16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.9685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4724,29 +4870,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="J3" s="124" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="J3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="124"/>
+      <c r="K3" s="145"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129" t="s">
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="130"/>
+      <c r="F5" s="151"/>
       <c r="J5" s="51" t="s">
         <v>98</v>
       </c>
@@ -4837,15 +4983,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133" t="s">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="144"/>
       <c r="J10" s="19" t="s">
         <v>12</v>
       </c>
@@ -4854,7 +5000,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="147" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="52" t="s">
@@ -4872,7 +5018,7 @@
       <c r="F11" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="146" t="s">
         <v>63</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -4883,7 +5029,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="126"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="52" t="s">
         <v>126</v>
       </c>
@@ -4899,7 +5045,7 @@
       <c r="F12" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="125"/>
+      <c r="G12" s="146"/>
       <c r="J12" s="19" t="s">
         <v>14</v>
       </c>
@@ -4908,7 +5054,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="52" t="s">
         <v>124</v>
       </c>
@@ -4924,7 +5070,7 @@
       <c r="F13" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="146"/>
       <c r="J13" s="19" t="s">
         <v>15</v>
       </c>
@@ -4948,15 +5094,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="F15" s="144"/>
       <c r="J15" s="19" t="s">
         <v>19</v>
       </c>
@@ -5030,15 +5176,15 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="134"/>
+      <c r="F20" s="144"/>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="52" t="s">
@@ -5102,11 +5248,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="A11:A13"/>
@@ -5114,6 +5255,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5144,23 +5290,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="K3" s="136" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="K3" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="136"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="155" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="64" t="s">
@@ -5184,7 +5330,7 @@
       <c r="H5" s="63">
         <v>830</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="154" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="51" t="s">
@@ -5195,7 +5341,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="61"/>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -5203,7 +5349,7 @@
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="137"/>
+      <c r="I6" s="154"/>
       <c r="K6" s="19" t="s">
         <v>9</v>
       </c>
@@ -5212,7 +5358,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="66">
         <v>987</v>
       </c>
@@ -5234,7 +5380,7 @@
       <c r="H7" s="68">
         <v>102</v>
       </c>
-      <c r="I7" s="137"/>
+      <c r="I7" s="154"/>
       <c r="K7" s="19" t="s">
         <v>10</v>
       </c>
@@ -5368,15 +5514,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="K3" s="124" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="K3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="124"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.2">
@@ -5512,7 +5658,7 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="158" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="73">
@@ -5524,7 +5670,7 @@
       <c r="F13" s="74">
         <v>11</v>
       </c>
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="157" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="35" t="s">
@@ -5535,7 +5681,7 @@
       </c>
     </row>
     <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="137"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="73">
         <v>7</v>
       </c>
@@ -5545,7 +5691,7 @@
       <c r="F14" s="74">
         <v>10</v>
       </c>
-      <c r="G14" s="138"/>
+      <c r="G14" s="155"/>
       <c r="K14" s="19" t="s">
         <v>19</v>
       </c>
@@ -5554,7 +5700,7 @@
       </c>
     </row>
     <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="137"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="73">
         <v>8</v>
       </c>
@@ -5564,7 +5710,7 @@
       <c r="F15" s="74">
         <v>9</v>
       </c>
-      <c r="G15" s="138"/>
+      <c r="G15" s="155"/>
       <c r="K15" s="19" t="s">
         <v>18</v>
       </c>
@@ -5705,16 +5851,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="L3" s="124" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="L3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="124"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:19" ht="19.5" x14ac:dyDescent="0.2">
@@ -5814,7 +5960,7 @@
       </c>
     </row>
     <row r="9" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="158" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="73">
@@ -5829,7 +5975,7 @@
       <c r="G9" s="74">
         <v>11</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="157" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="19" t="s">
@@ -5840,7 +5986,7 @@
       </c>
     </row>
     <row r="10" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="73">
         <v>3</v>
       </c>
@@ -5853,7 +5999,7 @@
       <c r="G10" s="74">
         <v>10</v>
       </c>
-      <c r="H10" s="138"/>
+      <c r="H10" s="155"/>
       <c r="L10" s="19" t="s">
         <v>13</v>
       </c>
@@ -5862,7 +6008,7 @@
       </c>
     </row>
     <row r="11" spans="3:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="137"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="73">
         <v>4</v>
       </c>
@@ -5875,7 +6021,7 @@
       <c r="G11" s="74">
         <v>9</v>
       </c>
-      <c r="H11" s="138"/>
+      <c r="H11" s="155"/>
       <c r="L11" s="19" t="s">
         <v>14</v>
       </c>
@@ -6102,16 +6248,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="L3" s="124" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="L3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="124"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R4" s="1">
@@ -6221,7 +6367,7 @@
       </c>
     </row>
     <row r="9" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="158" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="73">
@@ -6236,7 +6382,7 @@
       <c r="G9" s="74">
         <v>9</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="157" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="19" t="s">
@@ -6247,7 +6393,7 @@
       </c>
     </row>
     <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="73">
         <v>3</v>
       </c>
@@ -6260,7 +6406,7 @@
       <c r="G10" s="74">
         <v>8</v>
       </c>
-      <c r="H10" s="138"/>
+      <c r="H10" s="155"/>
       <c r="L10" s="19" t="s">
         <v>13</v>
       </c>
@@ -6269,7 +6415,7 @@
       </c>
     </row>
     <row r="11" spans="3:22" ht="18" x14ac:dyDescent="0.2">
-      <c r="C11" s="137"/>
+      <c r="C11" s="154"/>
       <c r="D11" s="73">
         <v>4</v>
       </c>
@@ -6282,7 +6428,7 @@
       <c r="G11" s="74">
         <v>7</v>
       </c>
-      <c r="H11" s="138"/>
+      <c r="H11" s="155"/>
       <c r="L11" s="19" t="s">
         <v>14</v>
       </c>
@@ -6472,51 +6618,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="O1" s="144" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="O1" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="146"/>
-      <c r="W1" s="147" t="s">
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="167"/>
+      <c r="W1" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="147"/>
+      <c r="X1" s="168"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="161"/>
+      <c r="E2" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
-      <c r="J2" s="156" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
+      <c r="J2" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
-      <c r="O2" s="148" t="s">
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
+      <c r="O2" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="154" t="s">
+      <c r="P2" s="170"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="155"/>
+      <c r="S2" s="176"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
@@ -6754,15 +6900,15 @@
       <c r="M7" s="74">
         <v>9</v>
       </c>
-      <c r="O7" s="151" t="s">
+      <c r="O7" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="142" t="s">
+      <c r="P7" s="173"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="143"/>
+      <c r="S7" s="164"/>
       <c r="W7" s="19" t="s">
         <v>111</v>
       </c>
@@ -7018,15 +7164,15 @@
       <c r="M12" s="74">
         <v>4</v>
       </c>
-      <c r="O12" s="151" t="s">
+      <c r="O12" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="142" t="s">
+      <c r="P12" s="173"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="143"/>
+      <c r="S12" s="164"/>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="73">
@@ -7238,15 +7384,15 @@
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
       <c r="M17" s="86"/>
-      <c r="O17" s="151" t="s">
+      <c r="O17" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="142" t="s">
+      <c r="P17" s="173"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="143"/>
+      <c r="S17" s="164"/>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
@@ -7435,15 +7581,15 @@
         <v>106</v>
       </c>
       <c r="M23" s="86"/>
-      <c r="O23" s="144" t="s">
+      <c r="O23" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="146"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="167"/>
       <c r="W23" s="19" t="s">
         <v>13</v>
       </c>
@@ -7716,11 +7862,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="O23:U23"/>
@@ -7731,6 +7872,11 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
